--- a/RESULTS_excel.xlsx
+++ b/RESULTS_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osmar\OneDrive\Escritorio\GitHub Repositories\High-Freq-Inflation-Forecast-2SML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\mefp\osmar.bolivar\Desktop\Research\High-Freq-Inflation-Forecast-2SML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1889BD5D-80C2-4019-81DA-A28DE9717245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73389E5B-3C23-4C8F-A71C-01CB7F312C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>F1</t>
   </si>
@@ -81,6 +79,9 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>RMSE</t>
   </si>
 </sst>
 </file>
@@ -90,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095DFE84-BFD3-4099-B4DC-EAAF6BD043AF}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -497,7 +498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -505,7 +506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -539,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -550,7 +551,9 @@
       <c r="D4" s="3">
         <v>0.21099999999999999</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>0.158</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -562,10 +565,12 @@
       <c r="K4" s="3">
         <v>0.18</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -576,7 +581,9 @@
       <c r="D5" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -588,10 +595,12 @@
       <c r="K5" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>0.3</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -602,7 +611,9 @@
       <c r="D6" s="3">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>0.52200000000000002</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>8</v>
@@ -614,10 +625,12 @@
       <c r="K6" s="3">
         <v>0.38600000000000001</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>0.48199999999999998</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,7 +641,9 @@
       <c r="D7" s="3">
         <v>0.34499999999999997</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>0.36599999999999999</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="H7" s="2" t="s">
         <v>7</v>
@@ -640,10 +655,12 @@
       <c r="K7" s="3">
         <v>0.309</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>0.309</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -654,7 +671,9 @@
       <c r="D8" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>0.40600000000000003</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="H8" s="2" t="s">
         <v>9</v>
@@ -666,10 +685,12 @@
       <c r="K8" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>0.40400000000000003</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,7 +701,9 @@
       <c r="D9" s="3">
         <v>0.26900000000000002</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -692,10 +715,12 @@
       <c r="K9" s="3">
         <v>0.26900000000000002</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>0.216</v>
+      </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -703,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -737,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,7 +773,9 @@
       <c r="D13" s="3">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>0.98299999999999998</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -760,10 +787,12 @@
       <c r="K13" s="3">
         <v>0.98</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>0.98399999999999999</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -774,7 +803,9 @@
       <c r="D14" s="3">
         <v>0.752</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0.752</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="H14" s="2" t="s">
         <v>6</v>
@@ -786,10 +817,12 @@
       <c r="K14" s="3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>0.96699999999999997</v>
+      </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -800,7 +833,9 @@
       <c r="D15" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0.94299999999999995</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="H15" s="2" t="s">
         <v>8</v>
@@ -812,10 +847,12 @@
       <c r="K15" s="3">
         <v>0.95799999999999996</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>0.94699999999999995</v>
+      </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -826,7 +863,9 @@
       <c r="D16" s="3">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>0.96</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="H16" s="2" t="s">
         <v>7</v>
@@ -838,10 +877,12 @@
       <c r="K16" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>0.96599999999999997</v>
+      </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -852,7 +893,9 @@
       <c r="D17" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.95599999999999996</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="H17" s="2" t="s">
         <v>9</v>
@@ -864,10 +907,12 @@
       <c r="K17" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>0.95599999999999996</v>
+      </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -878,7 +923,9 @@
       <c r="D18" s="3">
         <v>0.97099999999999997</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.97399999999999998</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="H18" s="2" t="s">
         <v>10</v>
@@ -890,8 +937,268 @@
       <c r="K18" s="3">
         <v>0.97099999999999997</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>0.97599999999999998</v>
+      </c>
       <c r="M18" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <f>SQRT(C4)</f>
+        <v>0.57445626465380284</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:E22" si="0">SQRT(D4)</f>
+        <v>0.45934736311423408</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39749213828703583</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <f>SQRT(J4)</f>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" ref="K22:L22" si="1">SQRT(K4)</f>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3794733192202055</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:E23" si="2">SQRT(C5)</f>
+        <v>1.5099668870541498</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5099668870541498</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5099668870541498</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <f t="shared" ref="J23:L23" si="3">SQRT(J5)</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59833101206606365</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:E24" si="4">SQRT(C6)</f>
+        <v>0.72663608498339805</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.65192024052026487</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72249567472753773</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <f t="shared" ref="J24:L24" si="5">SQRT(J6)</f>
+        <v>0.68920243760451105</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.6212889826803627</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.69426219830839131</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:E25" si="6">SQRT(C7)</f>
+        <v>0.67896980787071826</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.58736700622353655</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.60497933849016694</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <f t="shared" ref="J25:L25" si="7">SQRT(J7)</f>
+        <v>0.59833101206606365</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55587768438749185</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55587768438749185</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:E26" si="8">SQRT(C8)</f>
+        <v>0.68629439747093957</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="8"/>
+        <v>0.69570108523704344</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63718129288295966</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:L26" si="9">SQRT(J8)</f>
+        <v>0.63560994328282816</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="9"/>
+        <v>0.68264192663504053</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="9"/>
+        <v>0.63560994328282816</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:E27" si="10">SQRT(C9)</f>
+        <v>0.59665735560705191</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.51865209919559763</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.48887626246321264</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <f t="shared" ref="J27:L27" si="11">SQRT(J9)</f>
+        <v>0.57792733107199556</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="11"/>
+        <v>0.51865209919559763</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="11"/>
+        <v>0.46475800154489</v>
+      </c>
+      <c r="M27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULTS_excel.xlsx
+++ b/RESULTS_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\mefp\osmar.bolivar\Desktop\Research\High-Freq-Inflation-Forecast-2SML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73389E5B-3C23-4C8F-A71C-01CB7F312C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0558E5-0804-4ED5-9DC4-A35A3D88ECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -544,7 +544,9 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>0.433</v>
+      </c>
       <c r="C4" s="3">
         <v>0.33</v>
       </c>
@@ -554,11 +556,15 @@
       <c r="E4" s="3">
         <v>0.158</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>1.246</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>0.42</v>
+      </c>
       <c r="J4" s="3">
         <v>0.3</v>
       </c>
@@ -568,13 +574,17 @@
       <c r="L4" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>1.365</v>
+      </c>
       <c r="C5" s="3">
         <v>2.2799999999999998</v>
       </c>
@@ -584,11 +594,15 @@
       <c r="E5" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>0.79600000000000004</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0.46600000000000003</v>
+      </c>
       <c r="J5" s="3">
         <v>0.32</v>
       </c>
@@ -598,13 +612,17 @@
       <c r="L5" s="3">
         <v>0.3</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>0.39200000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>0.65500000000000003</v>
+      </c>
       <c r="C6" s="3">
         <v>0.52800000000000002</v>
       </c>
@@ -614,11 +632,15 @@
       <c r="E6" s="3">
         <v>0.52200000000000002</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>1.3979999999999999</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J6" s="3">
         <v>0.47499999999999998</v>
       </c>
@@ -628,13 +650,17 @@
       <c r="L6" s="3">
         <v>0.48199999999999998</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>0.28399999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="C7" s="3">
         <v>0.46100000000000002</v>
       </c>
@@ -644,11 +670,15 @@
       <c r="E7" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>0.55700000000000005</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>0.51800000000000002</v>
+      </c>
       <c r="J7" s="3">
         <v>0.35799999999999998</v>
       </c>
@@ -658,13 +688,17 @@
       <c r="L7" s="3">
         <v>0.309</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>0.307</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>0.72399999999999998</v>
+      </c>
       <c r="C8" s="3">
         <v>0.47099999999999997</v>
       </c>
@@ -674,11 +708,15 @@
       <c r="E8" s="3">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>0.44600000000000001</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>0.622</v>
+      </c>
       <c r="J8" s="3">
         <v>0.40400000000000003</v>
       </c>
@@ -688,13 +726,17 @@
       <c r="L8" s="3">
         <v>0.40400000000000003</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>0.28199999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.47</v>
+      </c>
       <c r="C9" s="3">
         <v>0.35599999999999998</v>
       </c>
@@ -704,11 +746,15 @@
       <c r="E9" s="3">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0.995</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>0.47</v>
+      </c>
       <c r="J9" s="3">
         <v>0.33400000000000002</v>
       </c>
@@ -718,7 +764,9 @@
       <c r="L9" s="3">
         <v>0.216</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>0.55100000000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="1" t="s">
@@ -766,7 +814,9 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>0.93700000000000006</v>
+      </c>
       <c r="C13" s="3">
         <v>0.96399999999999997</v>
       </c>
@@ -776,11 +826,15 @@
       <c r="E13" s="3">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>0.436</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0.93899999999999995</v>
+      </c>
       <c r="J13" s="3">
         <v>0.96699999999999997</v>
       </c>
@@ -790,13 +844,17 @@
       <c r="L13" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>0.80100000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>0.8</v>
+      </c>
       <c r="C14" s="3">
         <v>0.752</v>
       </c>
@@ -806,11 +864,15 @@
       <c r="E14" s="3">
         <v>0.752</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>0.64</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>0.95099999999999996</v>
+      </c>
       <c r="J14" s="3">
         <v>0.96499999999999997</v>
       </c>
@@ -820,13 +882,17 @@
       <c r="L14" s="3">
         <v>0.96699999999999997</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>0.82299999999999995</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>0.90400000000000003</v>
+      </c>
       <c r="C15" s="3">
         <v>0.94199999999999995</v>
       </c>
@@ -836,11 +902,15 @@
       <c r="E15" s="3">
         <v>0.94299999999999995</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>0.36699999999999999</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>0.91700000000000004</v>
+      </c>
       <c r="J15" s="3">
         <v>0.94799999999999995</v>
       </c>
@@ -850,13 +920,17 @@
       <c r="L15" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>0.872</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>0.92</v>
+      </c>
       <c r="C16" s="3">
         <v>0.95</v>
       </c>
@@ -866,11 +940,15 @@
       <c r="E16" s="3">
         <v>0.96</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>0.748</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>0.92400000000000004</v>
+      </c>
       <c r="J16" s="3">
         <v>0.96099999999999997</v>
       </c>
@@ -880,13 +958,17 @@
       <c r="L16" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>0.86099999999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>0.89400000000000002</v>
+      </c>
       <c r="C17" s="3">
         <v>0.94899999999999995</v>
       </c>
@@ -896,11 +978,15 @@
       <c r="E17" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>0.79800000000000004</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>0.91</v>
+      </c>
       <c r="J17" s="3">
         <v>0.95599999999999996</v>
       </c>
@@ -910,13 +996,17 @@
       <c r="L17" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>0.872</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>0.93100000000000005</v>
+      </c>
       <c r="C18" s="3">
         <v>0.96099999999999997</v>
       </c>
@@ -926,11 +1016,15 @@
       <c r="E18" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>0.93100000000000005</v>
+      </c>
       <c r="J18" s="3">
         <v>0.96399999999999997</v>
       </c>
@@ -940,7 +1034,9 @@
       <c r="L18" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="1" t="s">
@@ -988,7 +1084,10 @@
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <f>SQRT(B4)</f>
+        <v>0.65802735505448406</v>
+      </c>
       <c r="C22" s="3">
         <f>SQRT(C4)</f>
         <v>0.57445626465380284</v>
@@ -1001,206 +1100,323 @@
         <f t="shared" si="0"/>
         <v>0.39749213828703583</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <f t="shared" ref="F22" si="1">SQRT(F4)</f>
+        <v>1.1162437009900661</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <f>SQRT(I4)</f>
+        <v>0.64807406984078597</v>
+      </c>
       <c r="J22" s="3">
         <f>SQRT(J4)</f>
         <v>0.54772255750516607</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22:L22" si="1">SQRT(K4)</f>
+        <f t="shared" ref="K22:L22" si="2">SQRT(K4)</f>
         <v>0.42426406871192851</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3794733192202055</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22" si="3">SQRT(M4)</f>
+        <v>0.66332495807107994</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23" si="4">SQRT(B5)</f>
+        <v>1.1683321445547923</v>
+      </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:E23" si="2">SQRT(C5)</f>
+        <f t="shared" ref="C23:E23" si="5">SQRT(C5)</f>
         <v>1.5099668870541498</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5099668870541498</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5099668870541498</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <f t="shared" ref="F23" si="6">SQRT(F5)</f>
+        <v>0.89218832092781852</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <f t="shared" ref="I23" si="7">SQRT(I5)</f>
+        <v>0.68264192663504053</v>
+      </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23:L23" si="3">SQRT(J5)</f>
+        <f t="shared" ref="J23:L23" si="8">SQRT(J5)</f>
         <v>0.56568542494923801</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.59833101206606365</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.54772255750516607</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <f t="shared" ref="M23" si="9">SQRT(M5)</f>
+        <v>0.62609903369994113</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <f t="shared" ref="B24" si="10">SQRT(B6)</f>
+        <v>0.80932070281193225</v>
+      </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:E24" si="4">SQRT(C6)</f>
+        <f t="shared" ref="C24:E24" si="11">SQRT(C6)</f>
         <v>0.72663608498339805</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.65192024052026487</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.72249567472753773</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <f t="shared" ref="F24" si="12">SQRT(F6)</f>
+        <v>1.182370500308596</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24" si="13">SQRT(I6)</f>
+        <v>0.75498344352707492</v>
+      </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24:L24" si="5">SQRT(J6)</f>
+        <f t="shared" ref="J24:L24" si="14">SQRT(J6)</f>
         <v>0.68920243760451105</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.6212889826803627</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.69426219830839131</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24" si="15">SQRT(M6)</f>
+        <v>0.53291650377896904</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <f t="shared" ref="B25" si="16">SQRT(B7)</f>
+        <v>0.74161984870956632</v>
+      </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:E25" si="6">SQRT(C7)</f>
+        <f t="shared" ref="C25:E25" si="17">SQRT(C7)</f>
         <v>0.67896980787071826</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.58736700622353655</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.60497933849016694</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25" si="18">SQRT(F7)</f>
+        <v>0.74632432628181167</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <f t="shared" ref="I25" si="19">SQRT(I7)</f>
+        <v>0.71972216861786331</v>
+      </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:L25" si="7">SQRT(J7)</f>
+        <f t="shared" ref="J25:L25" si="20">SQRT(J7)</f>
         <v>0.59833101206606365</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.55587768438749185</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.55587768438749185</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25" si="21">SQRT(M7)</f>
+        <v>0.55407580708780269</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <f t="shared" ref="B26" si="22">SQRT(B8)</f>
+        <v>0.85088189544730586</v>
+      </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:E26" si="8">SQRT(C8)</f>
+        <f t="shared" ref="C26:E26" si="23">SQRT(C8)</f>
         <v>0.68629439747093957</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0.69570108523704344</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>0.63718129288295966</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26" si="24">SQRT(F8)</f>
+        <v>0.66783231428255996</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <f t="shared" ref="I26" si="25">SQRT(I8)</f>
+        <v>0.78866976612521411</v>
+      </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:L26" si="9">SQRT(J8)</f>
+        <f t="shared" ref="J26:L26" si="26">SQRT(J8)</f>
         <v>0.63560994328282816</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0.68264192663504053</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0.63560994328282816</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <f t="shared" ref="M26" si="27">SQRT(M8)</f>
+        <v>0.53103672189407014</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <f t="shared" ref="B27" si="28">SQRT(B9)</f>
+        <v>0.68556546004010444</v>
+      </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E27" si="10">SQRT(C9)</f>
+        <f t="shared" ref="C27:E27" si="29">SQRT(C9)</f>
         <v>0.59665735560705191</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0.51865209919559763</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0.48887626246321264</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27" si="30">SQRT(F9)</f>
+        <v>0.99749686716300012</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <f t="shared" ref="I27" si="31">SQRT(I9)</f>
+        <v>0.68556546004010444</v>
+      </c>
       <c r="J27" s="3">
-        <f t="shared" ref="J27:L27" si="11">SQRT(J9)</f>
+        <f t="shared" ref="J27:L27" si="32">SQRT(J9)</f>
         <v>0.57792733107199556</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0.51865209919559763</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0.46475800154489</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <f t="shared" ref="M27" si="33">SQRT(M9)</f>
+        <v>0.74229374239582546</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4:M9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:M18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RESULTS_excel.xlsx
+++ b/RESULTS_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\mefp\osmar.bolivar\Desktop\Research\High-Freq-Inflation-Forecast-2SML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osmar\OneDrive\Escritorio\GitHub Repositories\High-Freq-Inflation-Forecast-2SML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0558E5-0804-4ED5-9DC4-A35A3D88ECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57961836-D026-4037-B1CF-18E242DA5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
   <si>
     <t>F1</t>
   </si>
@@ -83,15 +83,19 @@
   <si>
     <t>RMSE</t>
   </si>
+  <si>
+    <t>Rel-MSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095DFE84-BFD3-4099-B4DC-EAAF6BD043AF}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="K4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -498,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -506,7 +511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -540,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -578,7 +583,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -616,7 +621,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,7 +659,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -692,7 +697,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +735,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -768,7 +773,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -776,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -810,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -848,7 +853,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -886,7 +891,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -924,7 +929,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -962,7 +967,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1080,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>0.66332495807107994</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>0.62609903369994113</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>0.53291650377896904</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>0.55407580708780269</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>0.53103672189407014</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1368,8 +1373,186 @@
         <v>0.74229374239582546</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34:M34" si="34">I4/$L$4</f>
+        <v>2.916666666666667</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="34"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="34"/>
+        <v>1.25</v>
+      </c>
+      <c r="L34" s="4">
+        <f>L4/$L$4</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:M39" si="35">M4/$L$4</f>
+        <v>3.0555555555555558</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" ref="I35:M35" si="36">I5/$L$4</f>
+        <v>3.2361111111111116</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="36"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="36"/>
+        <v>2.4861111111111112</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="36"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="35"/>
+        <v>2.7222222222222223</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" ref="I36:M36" si="37">I6/$L$4</f>
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="37"/>
+        <v>3.2986111111111112</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="37"/>
+        <v>2.6805555555555558</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="37"/>
+        <v>3.3472222222222223</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="35"/>
+        <v>1.9722222222222221</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" ref="I37:M37" si="38">I7/$L$4</f>
+        <v>3.5972222222222228</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="38"/>
+        <v>2.4861111111111112</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="38"/>
+        <v>2.1458333333333335</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="38"/>
+        <v>2.1458333333333335</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="35"/>
+        <v>2.1319444444444446</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" ref="I38:M38" si="39">I8/$L$4</f>
+        <v>4.3194444444444446</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="39"/>
+        <v>2.8055555555555558</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="39"/>
+        <v>3.2361111111111116</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="39"/>
+        <v>2.8055555555555558</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="35"/>
+        <v>1.9583333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" ref="I39:M39" si="40">I9/$L$4</f>
+        <v>3.2638888888888888</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="40"/>
+        <v>2.3194444444444446</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="40"/>
+        <v>1.8680555555555558</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="40"/>
+        <v>1.5</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="35"/>
+        <v>3.8263888888888893</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:M9">
+  <conditionalFormatting sqref="B4:F9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1381,8 +1564,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F9">
+  <conditionalFormatting sqref="B13:F18">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:M9">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1393,7 +1588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F18">
+  <conditionalFormatting sqref="I13:M18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1405,15 +1600,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:M18">
+  <conditionalFormatting sqref="I34:M39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/RESULTS_excel.xlsx
+++ b/RESULTS_excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osmar\OneDrive\Escritorio\GitHub Repositories\High-Freq-Inflation-Forecast-2SML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57961836-D026-4037-B1CF-18E242DA5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A63680-EB29-4498-89C2-E9589D56ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="KS daily" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="461">
   <si>
     <t>F1</t>
   </si>
@@ -85,6 +86,1338 @@
   </si>
   <si>
     <t>Rel-MSE</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>watermelon_su</t>
+  </si>
+  <si>
+    <t>apple_su</t>
+  </si>
+  <si>
+    <t>grapefruit_su</t>
+  </si>
+  <si>
+    <t>orange2_su</t>
+  </si>
+  <si>
+    <t>tomato_su</t>
+  </si>
+  <si>
+    <t>redpepper_su</t>
+  </si>
+  <si>
+    <t>peas_su</t>
+  </si>
+  <si>
+    <t>onion_su</t>
+  </si>
+  <si>
+    <t>onion2_su</t>
+  </si>
+  <si>
+    <t>bean_su</t>
+  </si>
+  <si>
+    <t>corn_su</t>
+  </si>
+  <si>
+    <t>paprika_su</t>
+  </si>
+  <si>
+    <t>greenbean_su</t>
+  </si>
+  <si>
+    <t>squash_su</t>
+  </si>
+  <si>
+    <t>carrot_su</t>
+  </si>
+  <si>
+    <t>rice_su</t>
+  </si>
+  <si>
+    <t>rice2_su</t>
+  </si>
+  <si>
+    <t>rice3_su</t>
+  </si>
+  <si>
+    <t>rice4_su</t>
+  </si>
+  <si>
+    <t>oil_su</t>
+  </si>
+  <si>
+    <t>oil2_su</t>
+  </si>
+  <si>
+    <t>sugar_su</t>
+  </si>
+  <si>
+    <t>noodle_su</t>
+  </si>
+  <si>
+    <t>flour_su</t>
+  </si>
+  <si>
+    <t>flour2_su</t>
+  </si>
+  <si>
+    <t>milk_su</t>
+  </si>
+  <si>
+    <t>milk2_su</t>
+  </si>
+  <si>
+    <t>lard_su</t>
+  </si>
+  <si>
+    <t>veglard_su</t>
+  </si>
+  <si>
+    <t>ycorn_su</t>
+  </si>
+  <si>
+    <t>ufv</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>wti</t>
+  </si>
+  <si>
+    <t>gas_ny</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>soybean</t>
+  </si>
+  <si>
+    <t>soy_flour</t>
+  </si>
+  <si>
+    <t>soy_oil</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>libor</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>watermelon LP</t>
+  </si>
+  <si>
+    <t>corn LP</t>
+  </si>
+  <si>
+    <t>sugar LP</t>
+  </si>
+  <si>
+    <t>apple LP</t>
+  </si>
+  <si>
+    <t>paprika LP</t>
+  </si>
+  <si>
+    <t>noodle LP</t>
+  </si>
+  <si>
+    <t>grapefruit LP</t>
+  </si>
+  <si>
+    <t>greenbean LP</t>
+  </si>
+  <si>
+    <t>flour LP</t>
+  </si>
+  <si>
+    <t>orange2 LP</t>
+  </si>
+  <si>
+    <t>squash LP</t>
+  </si>
+  <si>
+    <t>flour2 LP</t>
+  </si>
+  <si>
+    <t>tomato LP</t>
+  </si>
+  <si>
+    <t>carrot LP</t>
+  </si>
+  <si>
+    <t>milk LP</t>
+  </si>
+  <si>
+    <t>redpepper LP</t>
+  </si>
+  <si>
+    <t>rice LP</t>
+  </si>
+  <si>
+    <t>milk2 LP</t>
+  </si>
+  <si>
+    <t>peas LP</t>
+  </si>
+  <si>
+    <t>rice2 LP</t>
+  </si>
+  <si>
+    <t>lard LP</t>
+  </si>
+  <si>
+    <t>onion LP</t>
+  </si>
+  <si>
+    <t>rice3 LP</t>
+  </si>
+  <si>
+    <t>veglard LP</t>
+  </si>
+  <si>
+    <t>onion2 LP</t>
+  </si>
+  <si>
+    <t>rice4 LP</t>
+  </si>
+  <si>
+    <t>ycorn LP</t>
+  </si>
+  <si>
+    <t>bean LP</t>
+  </si>
+  <si>
+    <t>oil LP</t>
+  </si>
+  <si>
+    <t>quinoa LP</t>
+  </si>
+  <si>
+    <t>chili LP</t>
+  </si>
+  <si>
+    <t>oil2 LP</t>
+  </si>
+  <si>
+    <t>watermelon CB</t>
+  </si>
+  <si>
+    <t>corn CB</t>
+  </si>
+  <si>
+    <t>sugar CB</t>
+  </si>
+  <si>
+    <t>apple CB</t>
+  </si>
+  <si>
+    <t>paprika CB</t>
+  </si>
+  <si>
+    <t>noodle CB</t>
+  </si>
+  <si>
+    <t>grapefruit CB</t>
+  </si>
+  <si>
+    <t>greenbean CB</t>
+  </si>
+  <si>
+    <t>flour CB</t>
+  </si>
+  <si>
+    <t>orange2 CB</t>
+  </si>
+  <si>
+    <t>squash CB</t>
+  </si>
+  <si>
+    <t>flour2 CB</t>
+  </si>
+  <si>
+    <t>tomato CB</t>
+  </si>
+  <si>
+    <t>carrot CB</t>
+  </si>
+  <si>
+    <t>milk CB</t>
+  </si>
+  <si>
+    <t>redpepper CB</t>
+  </si>
+  <si>
+    <t>rice CB</t>
+  </si>
+  <si>
+    <t>milk2 CB</t>
+  </si>
+  <si>
+    <t>peas CB</t>
+  </si>
+  <si>
+    <t>rice2 CB</t>
+  </si>
+  <si>
+    <t>lard CB</t>
+  </si>
+  <si>
+    <t>onion CB</t>
+  </si>
+  <si>
+    <t>rice3 CB</t>
+  </si>
+  <si>
+    <t>veglard CB</t>
+  </si>
+  <si>
+    <t>onion2 CB</t>
+  </si>
+  <si>
+    <t>rice4 CB</t>
+  </si>
+  <si>
+    <t>ycorn CB</t>
+  </si>
+  <si>
+    <t>bean CB</t>
+  </si>
+  <si>
+    <t>oil CB</t>
+  </si>
+  <si>
+    <t>quinoa CB</t>
+  </si>
+  <si>
+    <t>chili CB</t>
+  </si>
+  <si>
+    <t>oil2 CB</t>
+  </si>
+  <si>
+    <t>watermelon SC</t>
+  </si>
+  <si>
+    <t>corn SC</t>
+  </si>
+  <si>
+    <t>sugar SC</t>
+  </si>
+  <si>
+    <t>apple SC</t>
+  </si>
+  <si>
+    <t>paprika SC</t>
+  </si>
+  <si>
+    <t>noodle SC</t>
+  </si>
+  <si>
+    <t>grapefruit SC</t>
+  </si>
+  <si>
+    <t>greenbean SC</t>
+  </si>
+  <si>
+    <t>flour SC</t>
+  </si>
+  <si>
+    <t>orange2 SC</t>
+  </si>
+  <si>
+    <t>squash SC</t>
+  </si>
+  <si>
+    <t>flour2 SC</t>
+  </si>
+  <si>
+    <t>tomato SC</t>
+  </si>
+  <si>
+    <t>carrot SC</t>
+  </si>
+  <si>
+    <t>milk SC</t>
+  </si>
+  <si>
+    <t>redpepper SC</t>
+  </si>
+  <si>
+    <t>rice SC</t>
+  </si>
+  <si>
+    <t>milk2 SC</t>
+  </si>
+  <si>
+    <t>peas SC</t>
+  </si>
+  <si>
+    <t>rice2 SC</t>
+  </si>
+  <si>
+    <t>lard SC</t>
+  </si>
+  <si>
+    <t>onion SC</t>
+  </si>
+  <si>
+    <t>rice3 SC</t>
+  </si>
+  <si>
+    <t>veglard SC</t>
+  </si>
+  <si>
+    <t>onion2 SC</t>
+  </si>
+  <si>
+    <t>rice4 SC</t>
+  </si>
+  <si>
+    <t>ycorn SC</t>
+  </si>
+  <si>
+    <t>bean SC</t>
+  </si>
+  <si>
+    <t>oil SC</t>
+  </si>
+  <si>
+    <t>chili SC</t>
+  </si>
+  <si>
+    <t>oil2 SC</t>
+  </si>
+  <si>
+    <t>watermelon OR</t>
+  </si>
+  <si>
+    <t>corn OR</t>
+  </si>
+  <si>
+    <t>sugar OR</t>
+  </si>
+  <si>
+    <t>apple OR</t>
+  </si>
+  <si>
+    <t>paprika OR</t>
+  </si>
+  <si>
+    <t>noodle OR</t>
+  </si>
+  <si>
+    <t>grapefruit OR</t>
+  </si>
+  <si>
+    <t>greenbean OR</t>
+  </si>
+  <si>
+    <t>flour OR</t>
+  </si>
+  <si>
+    <t>orange2 OR</t>
+  </si>
+  <si>
+    <t>squash OR</t>
+  </si>
+  <si>
+    <t>flour2 OR</t>
+  </si>
+  <si>
+    <t>tomato OR</t>
+  </si>
+  <si>
+    <t>carrot OR</t>
+  </si>
+  <si>
+    <t>milk OR</t>
+  </si>
+  <si>
+    <t>redpepper OR</t>
+  </si>
+  <si>
+    <t>rice OR</t>
+  </si>
+  <si>
+    <t>milk2 OR</t>
+  </si>
+  <si>
+    <t>peas OR</t>
+  </si>
+  <si>
+    <t>rice2 OR</t>
+  </si>
+  <si>
+    <t>lard OR</t>
+  </si>
+  <si>
+    <t>onion OR</t>
+  </si>
+  <si>
+    <t>rice3 OR</t>
+  </si>
+  <si>
+    <t>veglard OR</t>
+  </si>
+  <si>
+    <t>onion2 OR</t>
+  </si>
+  <si>
+    <t>rice4 OR</t>
+  </si>
+  <si>
+    <t>ycorn OR</t>
+  </si>
+  <si>
+    <t>bean OR</t>
+  </si>
+  <si>
+    <t>oil OR</t>
+  </si>
+  <si>
+    <t>chili OR</t>
+  </si>
+  <si>
+    <t>oil2 OR</t>
+  </si>
+  <si>
+    <t>watermelon PO</t>
+  </si>
+  <si>
+    <t>corn PO</t>
+  </si>
+  <si>
+    <t>sugar PO</t>
+  </si>
+  <si>
+    <t>apple PO</t>
+  </si>
+  <si>
+    <t>paprika PO</t>
+  </si>
+  <si>
+    <t>noodle PO</t>
+  </si>
+  <si>
+    <t>grapefruit PO</t>
+  </si>
+  <si>
+    <t>greenbean PO</t>
+  </si>
+  <si>
+    <t>flour PO</t>
+  </si>
+  <si>
+    <t>orange2 PO</t>
+  </si>
+  <si>
+    <t>squash PO</t>
+  </si>
+  <si>
+    <t>flour2 PO</t>
+  </si>
+  <si>
+    <t>tomato PO</t>
+  </si>
+  <si>
+    <t>carrot PO</t>
+  </si>
+  <si>
+    <t>milk PO</t>
+  </si>
+  <si>
+    <t>redpepper PO</t>
+  </si>
+  <si>
+    <t>rice PO</t>
+  </si>
+  <si>
+    <t>milk2 PO</t>
+  </si>
+  <si>
+    <t>peas PO</t>
+  </si>
+  <si>
+    <t>rice2 PO</t>
+  </si>
+  <si>
+    <t>lard PO</t>
+  </si>
+  <si>
+    <t>onion PO</t>
+  </si>
+  <si>
+    <t>rice3 PO</t>
+  </si>
+  <si>
+    <t>veglard PO</t>
+  </si>
+  <si>
+    <t>onion2 PO</t>
+  </si>
+  <si>
+    <t>rice4 PO</t>
+  </si>
+  <si>
+    <t>ycorn PO</t>
+  </si>
+  <si>
+    <t>bean PO</t>
+  </si>
+  <si>
+    <t>oil PO</t>
+  </si>
+  <si>
+    <t>chili PO</t>
+  </si>
+  <si>
+    <t>oil2 PO</t>
+  </si>
+  <si>
+    <t>watermelon TJ</t>
+  </si>
+  <si>
+    <t>corn TJ</t>
+  </si>
+  <si>
+    <t>sugar TJ</t>
+  </si>
+  <si>
+    <t>apple TJ</t>
+  </si>
+  <si>
+    <t>paprika TJ</t>
+  </si>
+  <si>
+    <t>noodle TJ</t>
+  </si>
+  <si>
+    <t>grapefruit TJ</t>
+  </si>
+  <si>
+    <t>greenbean TJ</t>
+  </si>
+  <si>
+    <t>flour TJ</t>
+  </si>
+  <si>
+    <t>orange2 TJ</t>
+  </si>
+  <si>
+    <t>squash TJ</t>
+  </si>
+  <si>
+    <t>flour2 TJ</t>
+  </si>
+  <si>
+    <t>tomato TJ</t>
+  </si>
+  <si>
+    <t>carrot TJ</t>
+  </si>
+  <si>
+    <t>milk TJ</t>
+  </si>
+  <si>
+    <t>redpepper TJ</t>
+  </si>
+  <si>
+    <t>rice TJ</t>
+  </si>
+  <si>
+    <t>milk2 TJ</t>
+  </si>
+  <si>
+    <t>peas TJ</t>
+  </si>
+  <si>
+    <t>rice2 TJ</t>
+  </si>
+  <si>
+    <t>lard TJ</t>
+  </si>
+  <si>
+    <t>onion TJ</t>
+  </si>
+  <si>
+    <t>rice3 TJ</t>
+  </si>
+  <si>
+    <t>veglard TJ</t>
+  </si>
+  <si>
+    <t>onion2 TJ</t>
+  </si>
+  <si>
+    <t>rice4 TJ</t>
+  </si>
+  <si>
+    <t>ycorn TJ</t>
+  </si>
+  <si>
+    <t>bean TJ</t>
+  </si>
+  <si>
+    <t>oil TJ</t>
+  </si>
+  <si>
+    <t>chili TJ</t>
+  </si>
+  <si>
+    <t>oil2 TJ</t>
+  </si>
+  <si>
+    <t>oil2 TR</t>
+  </si>
+  <si>
+    <t>watermelon TR</t>
+  </si>
+  <si>
+    <t>corn TR</t>
+  </si>
+  <si>
+    <t>sugar TR</t>
+  </si>
+  <si>
+    <t>apple TR</t>
+  </si>
+  <si>
+    <t>paprika TR</t>
+  </si>
+  <si>
+    <t>noodle TR</t>
+  </si>
+  <si>
+    <t>grapefruit TR</t>
+  </si>
+  <si>
+    <t>greenbean TR</t>
+  </si>
+  <si>
+    <t>flour TR</t>
+  </si>
+  <si>
+    <t>orange2 TR</t>
+  </si>
+  <si>
+    <t>squash TR</t>
+  </si>
+  <si>
+    <t>flour2 TR</t>
+  </si>
+  <si>
+    <t>tomato TR</t>
+  </si>
+  <si>
+    <t>carrot TR</t>
+  </si>
+  <si>
+    <t>milk TR</t>
+  </si>
+  <si>
+    <t>redpepper TR</t>
+  </si>
+  <si>
+    <t>rice TR</t>
+  </si>
+  <si>
+    <t>milk2 TR</t>
+  </si>
+  <si>
+    <t>peas TR</t>
+  </si>
+  <si>
+    <t>rice2 TR</t>
+  </si>
+  <si>
+    <t>lard TR</t>
+  </si>
+  <si>
+    <t>onion TR</t>
+  </si>
+  <si>
+    <t>rice3 TR</t>
+  </si>
+  <si>
+    <t>veglard TR</t>
+  </si>
+  <si>
+    <t>onion2 TR</t>
+  </si>
+  <si>
+    <t>rice4 TR</t>
+  </si>
+  <si>
+    <t>ycorn TR</t>
+  </si>
+  <si>
+    <t>bean TR</t>
+  </si>
+  <si>
+    <t>oil TR</t>
+  </si>
+  <si>
+    <t>chili TR</t>
+  </si>
+  <si>
+    <t>chili CO</t>
+  </si>
+  <si>
+    <t>oil2 CO</t>
+  </si>
+  <si>
+    <t>watermelon CO</t>
+  </si>
+  <si>
+    <t>corn CO</t>
+  </si>
+  <si>
+    <t>sugar CO</t>
+  </si>
+  <si>
+    <t>apple CO</t>
+  </si>
+  <si>
+    <t>paprika CO</t>
+  </si>
+  <si>
+    <t>noodle CO</t>
+  </si>
+  <si>
+    <t>grapefruit CO</t>
+  </si>
+  <si>
+    <t>greenbean CO</t>
+  </si>
+  <si>
+    <t>flour CO</t>
+  </si>
+  <si>
+    <t>orange2 CO</t>
+  </si>
+  <si>
+    <t>squash CO</t>
+  </si>
+  <si>
+    <t>flour2 CO</t>
+  </si>
+  <si>
+    <t>tomato CO</t>
+  </si>
+  <si>
+    <t>carrot CO</t>
+  </si>
+  <si>
+    <t>milk CO</t>
+  </si>
+  <si>
+    <t>redpepper CO</t>
+  </si>
+  <si>
+    <t>rice CO</t>
+  </si>
+  <si>
+    <t>milk2 CO</t>
+  </si>
+  <si>
+    <t>peas CO</t>
+  </si>
+  <si>
+    <t>rice2 CO</t>
+  </si>
+  <si>
+    <t>lard CO</t>
+  </si>
+  <si>
+    <t>onion CO</t>
+  </si>
+  <si>
+    <t>rice3 CO</t>
+  </si>
+  <si>
+    <t>veglard CO</t>
+  </si>
+  <si>
+    <t>onion2 CO</t>
+  </si>
+  <si>
+    <t>rice4 CO</t>
+  </si>
+  <si>
+    <t>ycorn CO</t>
+  </si>
+  <si>
+    <t>bean CO</t>
+  </si>
+  <si>
+    <t>oil CO</t>
+  </si>
+  <si>
+    <t>platano BO</t>
+  </si>
+  <si>
+    <t>chili BO</t>
+  </si>
+  <si>
+    <t>oil2 BO</t>
+  </si>
+  <si>
+    <t>watermelon BO</t>
+  </si>
+  <si>
+    <t>corn BO</t>
+  </si>
+  <si>
+    <t>sugar BO</t>
+  </si>
+  <si>
+    <t>apple BO</t>
+  </si>
+  <si>
+    <t>paprika BO</t>
+  </si>
+  <si>
+    <t>noodle BO</t>
+  </si>
+  <si>
+    <t>grapefruit BO</t>
+  </si>
+  <si>
+    <t>greenbean BO</t>
+  </si>
+  <si>
+    <t>flour BO</t>
+  </si>
+  <si>
+    <t>orange2 BO</t>
+  </si>
+  <si>
+    <t>squash BO</t>
+  </si>
+  <si>
+    <t>flour2 BO</t>
+  </si>
+  <si>
+    <t>tomato BO</t>
+  </si>
+  <si>
+    <t>carrot BO</t>
+  </si>
+  <si>
+    <t>milk BO</t>
+  </si>
+  <si>
+    <t>redpepper BO</t>
+  </si>
+  <si>
+    <t>rice BO</t>
+  </si>
+  <si>
+    <t>milk2 BO</t>
+  </si>
+  <si>
+    <t>peas BO</t>
+  </si>
+  <si>
+    <t>rice2 BO</t>
+  </si>
+  <si>
+    <t>lard BO</t>
+  </si>
+  <si>
+    <t>onion BO</t>
+  </si>
+  <si>
+    <t>rice3 BO</t>
+  </si>
+  <si>
+    <t>veglard BO</t>
+  </si>
+  <si>
+    <t>onion2 BO</t>
+  </si>
+  <si>
+    <t>rice4 BO</t>
+  </si>
+  <si>
+    <t>ycorn BO</t>
+  </si>
+  <si>
+    <t>bean BO</t>
+  </si>
+  <si>
+    <t>oil BO</t>
+  </si>
+  <si>
+    <t>beef BO</t>
+  </si>
+  <si>
+    <t>chicken BO</t>
+  </si>
+  <si>
+    <t>papa1 BO</t>
+  </si>
+  <si>
+    <t>papa2 BO</t>
+  </si>
+  <si>
+    <t>yuca BO</t>
+  </si>
+  <si>
+    <t>banana BO</t>
+  </si>
+  <si>
+    <t>lemon BO</t>
+  </si>
+  <si>
+    <t>orange BO</t>
+  </si>
+  <si>
+    <t>papaya BO</t>
+  </si>
+  <si>
+    <t>pineapple BO</t>
+  </si>
+  <si>
+    <t>beef LP</t>
+  </si>
+  <si>
+    <t>chicken LP</t>
+  </si>
+  <si>
+    <t>papa1 LP</t>
+  </si>
+  <si>
+    <t>papa2 LP</t>
+  </si>
+  <si>
+    <t>yuca LP</t>
+  </si>
+  <si>
+    <t>banana LP</t>
+  </si>
+  <si>
+    <t>lemon LP</t>
+  </si>
+  <si>
+    <t>orange LP</t>
+  </si>
+  <si>
+    <t>papaya LP</t>
+  </si>
+  <si>
+    <t>pineapple LP</t>
+  </si>
+  <si>
+    <t>platano LP</t>
+  </si>
+  <si>
+    <t>beef CB</t>
+  </si>
+  <si>
+    <t>chicken CB</t>
+  </si>
+  <si>
+    <t>papa1 CB</t>
+  </si>
+  <si>
+    <t>papa2 CB</t>
+  </si>
+  <si>
+    <t>yuca CB</t>
+  </si>
+  <si>
+    <t>banana CB</t>
+  </si>
+  <si>
+    <t>lemon CB</t>
+  </si>
+  <si>
+    <t>orange CB</t>
+  </si>
+  <si>
+    <t>papaya CB</t>
+  </si>
+  <si>
+    <t>pineapple CB</t>
+  </si>
+  <si>
+    <t>platano CB</t>
+  </si>
+  <si>
+    <t>beef SC</t>
+  </si>
+  <si>
+    <t>chicken SC</t>
+  </si>
+  <si>
+    <t>papa1 SC</t>
+  </si>
+  <si>
+    <t>papa2 SC</t>
+  </si>
+  <si>
+    <t>yuca SC</t>
+  </si>
+  <si>
+    <t>banana SC</t>
+  </si>
+  <si>
+    <t>lemon SC</t>
+  </si>
+  <si>
+    <t>orange SC</t>
+  </si>
+  <si>
+    <t>papaya SC</t>
+  </si>
+  <si>
+    <t>pineapple SC</t>
+  </si>
+  <si>
+    <t>platano SC</t>
+  </si>
+  <si>
+    <t>beef OR</t>
+  </si>
+  <si>
+    <t>chicken OR</t>
+  </si>
+  <si>
+    <t>papa1 OR</t>
+  </si>
+  <si>
+    <t>papa2 OR</t>
+  </si>
+  <si>
+    <t>yuca OR</t>
+  </si>
+  <si>
+    <t>banana OR</t>
+  </si>
+  <si>
+    <t>lemon OR</t>
+  </si>
+  <si>
+    <t>orange OR</t>
+  </si>
+  <si>
+    <t>papaya OR</t>
+  </si>
+  <si>
+    <t>pineapple OR</t>
+  </si>
+  <si>
+    <t>platano OR</t>
+  </si>
+  <si>
+    <t>beef PO</t>
+  </si>
+  <si>
+    <t>chicken PO</t>
+  </si>
+  <si>
+    <t>papa1 PO</t>
+  </si>
+  <si>
+    <t>papa2 PO</t>
+  </si>
+  <si>
+    <t>yuca PO</t>
+  </si>
+  <si>
+    <t>banana PO</t>
+  </si>
+  <si>
+    <t>lemon PO</t>
+  </si>
+  <si>
+    <t>orange PO</t>
+  </si>
+  <si>
+    <t>papaya PO</t>
+  </si>
+  <si>
+    <t>pineapple PO</t>
+  </si>
+  <si>
+    <t>platano PO</t>
+  </si>
+  <si>
+    <t>beef TJ</t>
+  </si>
+  <si>
+    <t>chicken TJ</t>
+  </si>
+  <si>
+    <t>papa1 TJ</t>
+  </si>
+  <si>
+    <t>papa2 TJ</t>
+  </si>
+  <si>
+    <t>yuca TJ</t>
+  </si>
+  <si>
+    <t>banana TJ</t>
+  </si>
+  <si>
+    <t>lemon TJ</t>
+  </si>
+  <si>
+    <t>orange TJ</t>
+  </si>
+  <si>
+    <t>papaya TJ</t>
+  </si>
+  <si>
+    <t>pineapple TJ</t>
+  </si>
+  <si>
+    <t>platano TJ</t>
+  </si>
+  <si>
+    <t>beef TR</t>
+  </si>
+  <si>
+    <t>chicken TR</t>
+  </si>
+  <si>
+    <t>papa1 TR</t>
+  </si>
+  <si>
+    <t>papa2 TR</t>
+  </si>
+  <si>
+    <t>yuca TR</t>
+  </si>
+  <si>
+    <t>banana TR</t>
+  </si>
+  <si>
+    <t>lemon TR</t>
+  </si>
+  <si>
+    <t>orange TR</t>
+  </si>
+  <si>
+    <t>papaya TR</t>
+  </si>
+  <si>
+    <t>pineapple TR</t>
+  </si>
+  <si>
+    <t>platano TR</t>
+  </si>
+  <si>
+    <t>beef CO</t>
+  </si>
+  <si>
+    <t>chicken CO</t>
+  </si>
+  <si>
+    <t>papa1 CO</t>
+  </si>
+  <si>
+    <t>papa2 CO</t>
+  </si>
+  <si>
+    <t>yuca CO</t>
+  </si>
+  <si>
+    <t>banana CO</t>
+  </si>
+  <si>
+    <t>lemon CO</t>
+  </si>
+  <si>
+    <t>orange CO</t>
+  </si>
+  <si>
+    <t>papaya CO</t>
+  </si>
+  <si>
+    <t>pineapple CO</t>
+  </si>
+  <si>
+    <t>platano CO</t>
+  </si>
+  <si>
+    <t>beef SU</t>
+  </si>
+  <si>
+    <t>chicken SU</t>
+  </si>
+  <si>
+    <t>papa1 SU</t>
+  </si>
+  <si>
+    <t>papa2 SU</t>
+  </si>
+  <si>
+    <t>yuca SU</t>
+  </si>
+  <si>
+    <t>banana SU</t>
+  </si>
+  <si>
+    <t>lemon SU</t>
+  </si>
+  <si>
+    <t>orange SU</t>
+  </si>
+  <si>
+    <t>papaya SU</t>
+  </si>
+  <si>
+    <t>pineapple SU</t>
+  </si>
+  <si>
+    <t>platano SU</t>
+  </si>
+  <si>
+    <t>chili SU</t>
   </si>
 </sst>
 </file>
@@ -95,7 +1428,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +1440,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,17 +1491,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095DFE84-BFD3-4099-B4DC-EAAF6BD043AF}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I39" sqref="I39:M39"/>
     </sheetView>
   </sheetViews>
@@ -1406,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:M34" si="34">I4/$L$4</f>
+        <f t="shared" ref="I34:K34" si="34">I4/$L$4</f>
         <v>2.916666666666667</v>
       </c>
       <c r="J34" s="4">
@@ -1431,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ref="I35:M35" si="36">I5/$L$4</f>
+        <f t="shared" ref="I35:L35" si="36">I5/$L$4</f>
         <v>3.2361111111111116</v>
       </c>
       <c r="J35" s="4">
@@ -1456,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36:M36" si="37">I6/$L$4</f>
+        <f t="shared" ref="I36:L36" si="37">I6/$L$4</f>
         <v>3.9583333333333335</v>
       </c>
       <c r="J36" s="4">
@@ -1481,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:M37" si="38">I7/$L$4</f>
+        <f t="shared" ref="I37:L37" si="38">I7/$L$4</f>
         <v>3.5972222222222228</v>
       </c>
       <c r="J37" s="4">
@@ -1506,7 +2861,7 @@
         <v>9</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38:M38" si="39">I8/$L$4</f>
+        <f t="shared" ref="I38:L38" si="39">I8/$L$4</f>
         <v>4.3194444444444446</v>
       </c>
       <c r="J38" s="4">
@@ -1531,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" ref="I39:M39" si="40">I9/$L$4</f>
+        <f t="shared" ref="I39:L39" si="40">I9/$L$4</f>
         <v>3.2638888888888888</v>
       </c>
       <c r="J39" s="4">
@@ -1614,4 +2969,8231 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489D0468-0D15-4A7F-8C9D-DB15EECB9A5E}">
+  <dimension ref="A1:X112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H87" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:X112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.499</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="R4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>154</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>185</v>
+      </c>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>216</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" t="s">
+        <v>247</v>
+      </c>
+      <c r="V8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0.749</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>433</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>261</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" t="s">
+        <v>279</v>
+      </c>
+      <c r="V9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>444</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>293</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>311</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>357</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.504</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>325</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="R11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" t="s">
+        <v>343</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="R12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" t="s">
+        <v>67</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>379</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="R13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>390</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="R14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" t="s">
+        <v>157</v>
+      </c>
+      <c r="V14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.878</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>401</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="R15" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" t="s">
+        <v>188</v>
+      </c>
+      <c r="V15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="R16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" t="s">
+        <v>219</v>
+      </c>
+      <c r="V16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="R17" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>423</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" t="s">
+        <v>232</v>
+      </c>
+      <c r="P18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="R18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" t="s">
+        <v>250</v>
+      </c>
+      <c r="V18" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>434</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" t="s">
+        <v>264</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="R19" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" t="s">
+        <v>282</v>
+      </c>
+      <c r="V19" t="s">
+        <v>67</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>445</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="R20" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" t="s">
+        <v>63</v>
+      </c>
+      <c r="T20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" t="s">
+        <v>314</v>
+      </c>
+      <c r="V20" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0.437</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>358</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" t="s">
+        <v>328</v>
+      </c>
+      <c r="P21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="R21" t="s">
+        <v>67</v>
+      </c>
+      <c r="S21" t="s">
+        <v>63</v>
+      </c>
+      <c r="T21" t="s">
+        <v>67</v>
+      </c>
+      <c r="U21" t="s">
+        <v>346</v>
+      </c>
+      <c r="V21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" t="s">
+        <v>67</v>
+      </c>
+      <c r="U22" t="s">
+        <v>96</v>
+      </c>
+      <c r="V22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="R23" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" t="s">
+        <v>63</v>
+      </c>
+      <c r="T23" t="s">
+        <v>67</v>
+      </c>
+      <c r="U23" t="s">
+        <v>128</v>
+      </c>
+      <c r="V23" t="s">
+        <v>67</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>391</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="R24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" t="s">
+        <v>160</v>
+      </c>
+      <c r="V24" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>402</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>67</v>
+      </c>
+      <c r="S25" t="s">
+        <v>63</v>
+      </c>
+      <c r="T25" t="s">
+        <v>67</v>
+      </c>
+      <c r="U25" t="s">
+        <v>191</v>
+      </c>
+      <c r="V25" t="s">
+        <v>67</v>
+      </c>
+      <c r="W25" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>413</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>67</v>
+      </c>
+      <c r="S26" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" t="s">
+        <v>67</v>
+      </c>
+      <c r="U26" t="s">
+        <v>222</v>
+      </c>
+      <c r="V26" t="s">
+        <v>67</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s">
+        <v>457</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L27" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="R27" t="s">
+        <v>67</v>
+      </c>
+      <c r="S27" t="s">
+        <v>63</v>
+      </c>
+      <c r="T27" t="s">
+        <v>67</v>
+      </c>
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" t="s">
+        <v>67</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" t="s">
+        <v>235</v>
+      </c>
+      <c r="P28" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="R28" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" t="s">
+        <v>63</v>
+      </c>
+      <c r="T28" t="s">
+        <v>67</v>
+      </c>
+      <c r="U28" t="s">
+        <v>253</v>
+      </c>
+      <c r="V28" t="s">
+        <v>67</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>435</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" t="s">
+        <v>267</v>
+      </c>
+      <c r="P29" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="R29" t="s">
+        <v>67</v>
+      </c>
+      <c r="S29" t="s">
+        <v>63</v>
+      </c>
+      <c r="T29" t="s">
+        <v>67</v>
+      </c>
+      <c r="U29" t="s">
+        <v>285</v>
+      </c>
+      <c r="V29" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>446</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="L30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" t="s">
+        <v>299</v>
+      </c>
+      <c r="P30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="R30" t="s">
+        <v>67</v>
+      </c>
+      <c r="S30" t="s">
+        <v>63</v>
+      </c>
+      <c r="T30" t="s">
+        <v>67</v>
+      </c>
+      <c r="U30" t="s">
+        <v>317</v>
+      </c>
+      <c r="V30" t="s">
+        <v>67</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>359</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>67</v>
+      </c>
+      <c r="S31" t="s">
+        <v>63</v>
+      </c>
+      <c r="T31" t="s">
+        <v>67</v>
+      </c>
+      <c r="U31" t="s">
+        <v>349</v>
+      </c>
+      <c r="V31" t="s">
+        <v>67</v>
+      </c>
+      <c r="W31" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" t="s">
+        <v>370</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="L32" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="R32" t="s">
+        <v>67</v>
+      </c>
+      <c r="S32" t="s">
+        <v>63</v>
+      </c>
+      <c r="T32" t="s">
+        <v>67</v>
+      </c>
+      <c r="U32" t="s">
+        <v>99</v>
+      </c>
+      <c r="V32" t="s">
+        <v>67</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" t="s">
+        <v>381</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L33" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="R33" t="s">
+        <v>67</v>
+      </c>
+      <c r="S33" t="s">
+        <v>63</v>
+      </c>
+      <c r="T33" t="s">
+        <v>67</v>
+      </c>
+      <c r="U33" t="s">
+        <v>131</v>
+      </c>
+      <c r="V33" t="s">
+        <v>67</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>392</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" t="s">
+        <v>145</v>
+      </c>
+      <c r="P34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R34" t="s">
+        <v>67</v>
+      </c>
+      <c r="S34" t="s">
+        <v>63</v>
+      </c>
+      <c r="T34" t="s">
+        <v>67</v>
+      </c>
+      <c r="U34" t="s">
+        <v>162</v>
+      </c>
+      <c r="V34" t="s">
+        <v>67</v>
+      </c>
+      <c r="W34" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" t="s">
+        <v>403</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.754</v>
+      </c>
+      <c r="L35" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O35" t="s">
+        <v>176</v>
+      </c>
+      <c r="P35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="R35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35" t="s">
+        <v>63</v>
+      </c>
+      <c r="T35" t="s">
+        <v>67</v>
+      </c>
+      <c r="U35" t="s">
+        <v>193</v>
+      </c>
+      <c r="V35" t="s">
+        <v>67</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s">
+        <v>414</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" t="s">
+        <v>67</v>
+      </c>
+      <c r="O36" t="s">
+        <v>207</v>
+      </c>
+      <c r="P36" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0.156</v>
+      </c>
+      <c r="R36" t="s">
+        <v>67</v>
+      </c>
+      <c r="S36" t="s">
+        <v>63</v>
+      </c>
+      <c r="T36" t="s">
+        <v>67</v>
+      </c>
+      <c r="U36" t="s">
+        <v>224</v>
+      </c>
+      <c r="V36" t="s">
+        <v>67</v>
+      </c>
+      <c r="W36" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.373</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" t="s">
+        <v>458</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.433</v>
+      </c>
+      <c r="L37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" t="s">
+        <v>63</v>
+      </c>
+      <c r="T37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U37" t="s">
+        <v>460</v>
+      </c>
+      <c r="V37" t="s">
+        <v>67</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.113</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s">
+        <v>425</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38" t="s">
+        <v>67</v>
+      </c>
+      <c r="O38" t="s">
+        <v>238</v>
+      </c>
+      <c r="P38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S38" t="s">
+        <v>63</v>
+      </c>
+      <c r="T38" t="s">
+        <v>67</v>
+      </c>
+      <c r="U38" t="s">
+        <v>255</v>
+      </c>
+      <c r="V38" t="s">
+        <v>67</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.438</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" t="s">
+        <v>436</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" t="s">
+        <v>270</v>
+      </c>
+      <c r="P39" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="R39" t="s">
+        <v>67</v>
+      </c>
+      <c r="S39" t="s">
+        <v>63</v>
+      </c>
+      <c r="T39" t="s">
+        <v>67</v>
+      </c>
+      <c r="U39" t="s">
+        <v>287</v>
+      </c>
+      <c r="V39" t="s">
+        <v>67</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.311</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>447</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" t="s">
+        <v>302</v>
+      </c>
+      <c r="P40" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="R40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S40" t="s">
+        <v>63</v>
+      </c>
+      <c r="T40" t="s">
+        <v>67</v>
+      </c>
+      <c r="U40" t="s">
+        <v>288</v>
+      </c>
+      <c r="V40" t="s">
+        <v>67</v>
+      </c>
+      <c r="W40" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" t="s">
+        <v>67</v>
+      </c>
+      <c r="O41" t="s">
+        <v>334</v>
+      </c>
+      <c r="P41" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0.187</v>
+      </c>
+      <c r="R41" t="s">
+        <v>67</v>
+      </c>
+      <c r="S41" t="s">
+        <v>63</v>
+      </c>
+      <c r="T41" t="s">
+        <v>67</v>
+      </c>
+      <c r="U41" t="s">
+        <v>320</v>
+      </c>
+      <c r="V41" t="s">
+        <v>67</v>
+      </c>
+      <c r="W41" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.252</v>
+      </c>
+      <c r="L42" t="s">
+        <v>67</v>
+      </c>
+      <c r="M42" t="s">
+        <v>63</v>
+      </c>
+      <c r="N42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="R42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" t="s">
+        <v>63</v>
+      </c>
+      <c r="T42" t="s">
+        <v>67</v>
+      </c>
+      <c r="U42" t="s">
+        <v>70</v>
+      </c>
+      <c r="V42" t="s">
+        <v>67</v>
+      </c>
+      <c r="W42" s="6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L43" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N43" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="R43" t="s">
+        <v>67</v>
+      </c>
+      <c r="S43" t="s">
+        <v>63</v>
+      </c>
+      <c r="T43" t="s">
+        <v>67</v>
+      </c>
+      <c r="U43" t="s">
+        <v>102</v>
+      </c>
+      <c r="V43" t="s">
+        <v>67</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="L44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+      <c r="O44" t="s">
+        <v>148</v>
+      </c>
+      <c r="P44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
+        <v>67</v>
+      </c>
+      <c r="S44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T44" t="s">
+        <v>67</v>
+      </c>
+      <c r="U44" t="s">
+        <v>134</v>
+      </c>
+      <c r="V44" t="s">
+        <v>67</v>
+      </c>
+      <c r="W44" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s">
+        <v>404</v>
+      </c>
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O45" t="s">
+        <v>179</v>
+      </c>
+      <c r="P45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="R45" t="s">
+        <v>67</v>
+      </c>
+      <c r="S45" t="s">
+        <v>63</v>
+      </c>
+      <c r="T45" t="s">
+        <v>67</v>
+      </c>
+      <c r="U45" t="s">
+        <v>165</v>
+      </c>
+      <c r="V45" t="s">
+        <v>67</v>
+      </c>
+      <c r="W45" s="6">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" t="s">
+        <v>415</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" t="s">
+        <v>210</v>
+      </c>
+      <c r="P46" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>67</v>
+      </c>
+      <c r="S46" t="s">
+        <v>63</v>
+      </c>
+      <c r="T46" t="s">
+        <v>67</v>
+      </c>
+      <c r="U46" t="s">
+        <v>196</v>
+      </c>
+      <c r="V46" t="s">
+        <v>67</v>
+      </c>
+      <c r="W46" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" t="s">
+        <v>459</v>
+      </c>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="L47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" t="s">
+        <v>67</v>
+      </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="R47" t="s">
+        <v>67</v>
+      </c>
+      <c r="S47" t="s">
+        <v>63</v>
+      </c>
+      <c r="T47" t="s">
+        <v>67</v>
+      </c>
+      <c r="U47" t="s">
+        <v>28</v>
+      </c>
+      <c r="V47" t="s">
+        <v>67</v>
+      </c>
+      <c r="W47" s="6">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>420</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s">
+        <v>426</v>
+      </c>
+      <c r="J48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L48" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" t="s">
+        <v>63</v>
+      </c>
+      <c r="N48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48" t="s">
+        <v>241</v>
+      </c>
+      <c r="P48" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>67</v>
+      </c>
+      <c r="S48" t="s">
+        <v>63</v>
+      </c>
+      <c r="T48" t="s">
+        <v>67</v>
+      </c>
+      <c r="U48" t="s">
+        <v>227</v>
+      </c>
+      <c r="V48" t="s">
+        <v>67</v>
+      </c>
+      <c r="W48" s="6">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s">
+        <v>437</v>
+      </c>
+      <c r="J49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="L49" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49" t="s">
+        <v>273</v>
+      </c>
+      <c r="P49" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>67</v>
+      </c>
+      <c r="S49" t="s">
+        <v>63</v>
+      </c>
+      <c r="T49" t="s">
+        <v>67</v>
+      </c>
+      <c r="U49" t="s">
+        <v>259</v>
+      </c>
+      <c r="V49" t="s">
+        <v>67</v>
+      </c>
+      <c r="W49" s="6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>442</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" s="6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50" t="s">
+        <v>305</v>
+      </c>
+      <c r="P50" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s">
+        <v>67</v>
+      </c>
+      <c r="S50" t="s">
+        <v>63</v>
+      </c>
+      <c r="T50" t="s">
+        <v>67</v>
+      </c>
+      <c r="U50" t="s">
+        <v>291</v>
+      </c>
+      <c r="V50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W50" s="6">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>355</v>
+      </c>
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s">
+        <v>319</v>
+      </c>
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>67</v>
+      </c>
+      <c r="M51" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O51" t="s">
+        <v>337</v>
+      </c>
+      <c r="P51" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="R51" t="s">
+        <v>67</v>
+      </c>
+      <c r="S51" t="s">
+        <v>63</v>
+      </c>
+      <c r="T51" t="s">
+        <v>67</v>
+      </c>
+      <c r="U51" t="s">
+        <v>323</v>
+      </c>
+      <c r="V51" t="s">
+        <v>67</v>
+      </c>
+      <c r="W51" s="6">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="L52" t="s">
+        <v>67</v>
+      </c>
+      <c r="M52" t="s">
+        <v>63</v>
+      </c>
+      <c r="N52" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="R52" t="s">
+        <v>67</v>
+      </c>
+      <c r="S52" t="s">
+        <v>63</v>
+      </c>
+      <c r="T52" t="s">
+        <v>67</v>
+      </c>
+      <c r="U52" t="s">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s">
+        <v>67</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0.248</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.153</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="L53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M53" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R53" t="s">
+        <v>67</v>
+      </c>
+      <c r="S53" t="s">
+        <v>63</v>
+      </c>
+      <c r="T53" t="s">
+        <v>67</v>
+      </c>
+      <c r="U53" t="s">
+        <v>105</v>
+      </c>
+      <c r="V53" t="s">
+        <v>67</v>
+      </c>
+      <c r="W53" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="L54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" t="s">
+        <v>67</v>
+      </c>
+      <c r="O54" t="s">
+        <v>151</v>
+      </c>
+      <c r="P54" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R54" t="s">
+        <v>67</v>
+      </c>
+      <c r="S54" t="s">
+        <v>63</v>
+      </c>
+      <c r="T54" t="s">
+        <v>67</v>
+      </c>
+      <c r="U54" t="s">
+        <v>137</v>
+      </c>
+      <c r="V54" t="s">
+        <v>67</v>
+      </c>
+      <c r="W54" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>399</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0.189</v>
+      </c>
+      <c r="L55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M55" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" t="s">
+        <v>67</v>
+      </c>
+      <c r="O55" t="s">
+        <v>182</v>
+      </c>
+      <c r="P55" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R55" t="s">
+        <v>67</v>
+      </c>
+      <c r="S55" t="s">
+        <v>63</v>
+      </c>
+      <c r="T55" t="s">
+        <v>67</v>
+      </c>
+      <c r="U55" t="s">
+        <v>168</v>
+      </c>
+      <c r="V55" t="s">
+        <v>67</v>
+      </c>
+      <c r="W55" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>410</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" t="s">
+        <v>195</v>
+      </c>
+      <c r="J56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="L56" t="s">
+        <v>67</v>
+      </c>
+      <c r="M56" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" t="s">
+        <v>67</v>
+      </c>
+      <c r="O56" t="s">
+        <v>213</v>
+      </c>
+      <c r="P56" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0.106</v>
+      </c>
+      <c r="R56" t="s">
+        <v>67</v>
+      </c>
+      <c r="S56" t="s">
+        <v>63</v>
+      </c>
+      <c r="T56" t="s">
+        <v>67</v>
+      </c>
+      <c r="U56" t="s">
+        <v>199</v>
+      </c>
+      <c r="V56" t="s">
+        <v>67</v>
+      </c>
+      <c r="W56" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>454</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L57" t="s">
+        <v>67</v>
+      </c>
+      <c r="M57" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" t="s">
+        <v>67</v>
+      </c>
+      <c r="O57" t="s">
+        <v>24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="R57" t="s">
+        <v>67</v>
+      </c>
+      <c r="S57" t="s">
+        <v>63</v>
+      </c>
+      <c r="T57" t="s">
+        <v>67</v>
+      </c>
+      <c r="U57" t="s">
+        <v>29</v>
+      </c>
+      <c r="V57" t="s">
+        <v>67</v>
+      </c>
+      <c r="W57" s="6">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L58" t="s">
+        <v>67</v>
+      </c>
+      <c r="M58" t="s">
+        <v>63</v>
+      </c>
+      <c r="N58" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58" t="s">
+        <v>244</v>
+      </c>
+      <c r="P58" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R58" t="s">
+        <v>67</v>
+      </c>
+      <c r="S58" t="s">
+        <v>63</v>
+      </c>
+      <c r="T58" t="s">
+        <v>67</v>
+      </c>
+      <c r="U58" t="s">
+        <v>230</v>
+      </c>
+      <c r="V58" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>432</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s">
+        <v>258</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" t="s">
+        <v>276</v>
+      </c>
+      <c r="P59" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="R59" t="s">
+        <v>67</v>
+      </c>
+      <c r="S59" t="s">
+        <v>63</v>
+      </c>
+      <c r="T59" t="s">
+        <v>67</v>
+      </c>
+      <c r="U59" t="s">
+        <v>262</v>
+      </c>
+      <c r="V59" t="s">
+        <v>67</v>
+      </c>
+      <c r="W59" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" t="s">
+        <v>290</v>
+      </c>
+      <c r="J60" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L60" t="s">
+        <v>67</v>
+      </c>
+      <c r="M60" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" t="s">
+        <v>308</v>
+      </c>
+      <c r="P60" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="R60" t="s">
+        <v>67</v>
+      </c>
+      <c r="S60" t="s">
+        <v>63</v>
+      </c>
+      <c r="T60" t="s">
+        <v>67</v>
+      </c>
+      <c r="U60" t="s">
+        <v>294</v>
+      </c>
+      <c r="V60" t="s">
+        <v>67</v>
+      </c>
+      <c r="W60" s="6">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s">
+        <v>322</v>
+      </c>
+      <c r="J61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="L61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N61" t="s">
+        <v>67</v>
+      </c>
+      <c r="O61" t="s">
+        <v>340</v>
+      </c>
+      <c r="P61" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R61" t="s">
+        <v>67</v>
+      </c>
+      <c r="S61" t="s">
+        <v>63</v>
+      </c>
+      <c r="T61" t="s">
+        <v>67</v>
+      </c>
+      <c r="U61" t="s">
+        <v>326</v>
+      </c>
+      <c r="V61" t="s">
+        <v>67</v>
+      </c>
+      <c r="W61" s="6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" t="s">
+        <v>341</v>
+      </c>
+      <c r="J64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="L64" t="s">
+        <v>67</v>
+      </c>
+      <c r="M64" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" t="s">
+        <v>67</v>
+      </c>
+      <c r="O64" t="s">
+        <v>292</v>
+      </c>
+      <c r="P64" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
+        <v>67</v>
+      </c>
+      <c r="S64" t="s">
+        <v>63</v>
+      </c>
+      <c r="T64" t="s">
+        <v>67</v>
+      </c>
+      <c r="U64" t="s">
+        <v>275</v>
+      </c>
+      <c r="V64" t="s">
+        <v>67</v>
+      </c>
+      <c r="W64" s="6">
+        <v>1</v>
+      </c>
+      <c r="X64" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L65" t="s">
+        <v>67</v>
+      </c>
+      <c r="M65" t="s">
+        <v>63</v>
+      </c>
+      <c r="N65" t="s">
+        <v>67</v>
+      </c>
+      <c r="O65" t="s">
+        <v>324</v>
+      </c>
+      <c r="P65" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="R65" t="s">
+        <v>67</v>
+      </c>
+      <c r="S65" t="s">
+        <v>63</v>
+      </c>
+      <c r="T65" t="s">
+        <v>67</v>
+      </c>
+      <c r="U65" t="s">
+        <v>307</v>
+      </c>
+      <c r="V65" t="s">
+        <v>67</v>
+      </c>
+      <c r="W65" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="X65" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="L66" t="s">
+        <v>67</v>
+      </c>
+      <c r="M66" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" t="s">
+        <v>67</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="R66" t="s">
+        <v>67</v>
+      </c>
+      <c r="S66" t="s">
+        <v>63</v>
+      </c>
+      <c r="T66" t="s">
+        <v>67</v>
+      </c>
+      <c r="U66" t="s">
+        <v>339</v>
+      </c>
+      <c r="V66" t="s">
+        <v>67</v>
+      </c>
+      <c r="W66" s="6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="X66" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" t="s">
+        <v>155</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="L67" t="s">
+        <v>67</v>
+      </c>
+      <c r="M67" t="s">
+        <v>63</v>
+      </c>
+      <c r="N67" t="s">
+        <v>67</v>
+      </c>
+      <c r="O67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P67" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>1</v>
+      </c>
+      <c r="R67" t="s">
+        <v>67</v>
+      </c>
+      <c r="S67" t="s">
+        <v>63</v>
+      </c>
+      <c r="T67" t="s">
+        <v>67</v>
+      </c>
+      <c r="U67" t="s">
+        <v>89</v>
+      </c>
+      <c r="V67" t="s">
+        <v>67</v>
+      </c>
+      <c r="W67" s="6">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="L68" t="s">
+        <v>67</v>
+      </c>
+      <c r="M68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" t="s">
+        <v>67</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>1</v>
+      </c>
+      <c r="R68" t="s">
+        <v>67</v>
+      </c>
+      <c r="S68" t="s">
+        <v>63</v>
+      </c>
+      <c r="T68" t="s">
+        <v>67</v>
+      </c>
+      <c r="U68" t="s">
+        <v>121</v>
+      </c>
+      <c r="V68" t="s">
+        <v>67</v>
+      </c>
+      <c r="W68" s="6">
+        <v>1</v>
+      </c>
+      <c r="X68" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" t="s">
+        <v>217</v>
+      </c>
+      <c r="J69" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L69" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" t="s">
+        <v>63</v>
+      </c>
+      <c r="N69" t="s">
+        <v>67</v>
+      </c>
+      <c r="O69" t="s">
+        <v>169</v>
+      </c>
+      <c r="P69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="R69" t="s">
+        <v>67</v>
+      </c>
+      <c r="S69" t="s">
+        <v>63</v>
+      </c>
+      <c r="T69" t="s">
+        <v>67</v>
+      </c>
+      <c r="U69" t="s">
+        <v>153</v>
+      </c>
+      <c r="V69" t="s">
+        <v>67</v>
+      </c>
+      <c r="W69" s="6">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="X69" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" t="s">
+        <v>67</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>67</v>
+      </c>
+      <c r="M70" t="s">
+        <v>63</v>
+      </c>
+      <c r="N70" t="s">
+        <v>67</v>
+      </c>
+      <c r="O70" t="s">
+        <v>200</v>
+      </c>
+      <c r="P70" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R70" t="s">
+        <v>67</v>
+      </c>
+      <c r="S70" t="s">
+        <v>63</v>
+      </c>
+      <c r="T70" t="s">
+        <v>67</v>
+      </c>
+      <c r="U70" t="s">
+        <v>184</v>
+      </c>
+      <c r="V70" t="s">
+        <v>67</v>
+      </c>
+      <c r="W70" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="X70" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" t="s">
+        <v>248</v>
+      </c>
+      <c r="J71" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L71" t="s">
+        <v>67</v>
+      </c>
+      <c r="M71" t="s">
+        <v>63</v>
+      </c>
+      <c r="N71" t="s">
+        <v>67</v>
+      </c>
+      <c r="O71" t="s">
+        <v>40</v>
+      </c>
+      <c r="P71" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="R71" t="s">
+        <v>67</v>
+      </c>
+      <c r="S71" t="s">
+        <v>63</v>
+      </c>
+      <c r="T71" t="s">
+        <v>67</v>
+      </c>
+      <c r="U71" t="s">
+        <v>215</v>
+      </c>
+      <c r="V71" t="s">
+        <v>67</v>
+      </c>
+      <c r="W71" s="6">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="X71" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72" t="s">
+        <v>280</v>
+      </c>
+      <c r="J72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M72" t="s">
+        <v>63</v>
+      </c>
+      <c r="N72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O72" t="s">
+        <v>231</v>
+      </c>
+      <c r="P72" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="R72" t="s">
+        <v>67</v>
+      </c>
+      <c r="S72" t="s">
+        <v>63</v>
+      </c>
+      <c r="T72" t="s">
+        <v>67</v>
+      </c>
+      <c r="U72" t="s">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s">
+        <v>67</v>
+      </c>
+      <c r="W72" s="6">
+        <v>1</v>
+      </c>
+      <c r="X72" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" t="s">
+        <v>312</v>
+      </c>
+      <c r="J73" t="s">
+        <v>67</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>67</v>
+      </c>
+      <c r="M73" t="s">
+        <v>63</v>
+      </c>
+      <c r="N73" t="s">
+        <v>67</v>
+      </c>
+      <c r="O73" t="s">
+        <v>263</v>
+      </c>
+      <c r="P73" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>67</v>
+      </c>
+      <c r="S73" t="s">
+        <v>63</v>
+      </c>
+      <c r="T73" t="s">
+        <v>67</v>
+      </c>
+      <c r="U73" t="s">
+        <v>246</v>
+      </c>
+      <c r="V73" t="s">
+        <v>67</v>
+      </c>
+      <c r="W73" s="6">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="X73" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0.497</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" t="s">
+        <v>344</v>
+      </c>
+      <c r="J74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L74" t="s">
+        <v>67</v>
+      </c>
+      <c r="M74" t="s">
+        <v>63</v>
+      </c>
+      <c r="N74" t="s">
+        <v>67</v>
+      </c>
+      <c r="O74" t="s">
+        <v>295</v>
+      </c>
+      <c r="P74" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="R74" t="s">
+        <v>67</v>
+      </c>
+      <c r="S74" t="s">
+        <v>63</v>
+      </c>
+      <c r="T74" t="s">
+        <v>67</v>
+      </c>
+      <c r="U74" t="s">
+        <v>278</v>
+      </c>
+      <c r="V74" t="s">
+        <v>67</v>
+      </c>
+      <c r="W74" s="6">
+        <v>1</v>
+      </c>
+      <c r="X74" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="L75" t="s">
+        <v>67</v>
+      </c>
+      <c r="M75" t="s">
+        <v>63</v>
+      </c>
+      <c r="N75" t="s">
+        <v>67</v>
+      </c>
+      <c r="O75" t="s">
+        <v>327</v>
+      </c>
+      <c r="P75" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="R75" t="s">
+        <v>67</v>
+      </c>
+      <c r="S75" t="s">
+        <v>63</v>
+      </c>
+      <c r="T75" t="s">
+        <v>67</v>
+      </c>
+      <c r="U75" t="s">
+        <v>310</v>
+      </c>
+      <c r="V75" t="s">
+        <v>67</v>
+      </c>
+      <c r="W75" s="6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="X75" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" t="s">
+        <v>126</v>
+      </c>
+      <c r="J76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>67</v>
+      </c>
+      <c r="M76" t="s">
+        <v>63</v>
+      </c>
+      <c r="N76" t="s">
+        <v>67</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="R76" t="s">
+        <v>67</v>
+      </c>
+      <c r="S76" t="s">
+        <v>63</v>
+      </c>
+      <c r="T76" t="s">
+        <v>67</v>
+      </c>
+      <c r="U76" t="s">
+        <v>342</v>
+      </c>
+      <c r="V76" t="s">
+        <v>67</v>
+      </c>
+      <c r="W76" s="6">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="X76" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" t="s">
+        <v>158</v>
+      </c>
+      <c r="J77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L77" t="s">
+        <v>67</v>
+      </c>
+      <c r="M77" t="s">
+        <v>63</v>
+      </c>
+      <c r="N77" t="s">
+        <v>67</v>
+      </c>
+      <c r="O77" t="s">
+        <v>109</v>
+      </c>
+      <c r="P77" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s">
+        <v>67</v>
+      </c>
+      <c r="S77" t="s">
+        <v>63</v>
+      </c>
+      <c r="T77" t="s">
+        <v>67</v>
+      </c>
+      <c r="U77" t="s">
+        <v>92</v>
+      </c>
+      <c r="V77" t="s">
+        <v>67</v>
+      </c>
+      <c r="W77" s="6">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="X77" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>67</v>
+      </c>
+      <c r="M78" t="s">
+        <v>63</v>
+      </c>
+      <c r="N78" t="s">
+        <v>67</v>
+      </c>
+      <c r="O78" t="s">
+        <v>141</v>
+      </c>
+      <c r="P78" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>67</v>
+      </c>
+      <c r="S78" t="s">
+        <v>63</v>
+      </c>
+      <c r="T78" t="s">
+        <v>67</v>
+      </c>
+      <c r="U78" t="s">
+        <v>124</v>
+      </c>
+      <c r="V78" t="s">
+        <v>67</v>
+      </c>
+      <c r="W78" s="6">
+        <v>1</v>
+      </c>
+      <c r="X78" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>67</v>
+      </c>
+      <c r="M79" t="s">
+        <v>63</v>
+      </c>
+      <c r="N79" t="s">
+        <v>67</v>
+      </c>
+      <c r="O79" t="s">
+        <v>172</v>
+      </c>
+      <c r="P79" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="R79" t="s">
+        <v>67</v>
+      </c>
+      <c r="S79" t="s">
+        <v>63</v>
+      </c>
+      <c r="T79" t="s">
+        <v>67</v>
+      </c>
+      <c r="U79" t="s">
+        <v>156</v>
+      </c>
+      <c r="V79" t="s">
+        <v>67</v>
+      </c>
+      <c r="W79" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="X79" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="F80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" t="s">
+        <v>67</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>67</v>
+      </c>
+      <c r="M80" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" t="s">
+        <v>67</v>
+      </c>
+      <c r="O80" t="s">
+        <v>203</v>
+      </c>
+      <c r="P80" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>67</v>
+      </c>
+      <c r="S80" t="s">
+        <v>63</v>
+      </c>
+      <c r="T80" t="s">
+        <v>67</v>
+      </c>
+      <c r="U80" t="s">
+        <v>187</v>
+      </c>
+      <c r="V80" t="s">
+        <v>67</v>
+      </c>
+      <c r="W80" s="6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="X80" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" t="s">
+        <v>67</v>
+      </c>
+      <c r="I81" t="s">
+        <v>251</v>
+      </c>
+      <c r="J81" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" t="s">
+        <v>63</v>
+      </c>
+      <c r="N81" t="s">
+        <v>67</v>
+      </c>
+      <c r="O81" t="s">
+        <v>41</v>
+      </c>
+      <c r="P81" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>1</v>
+      </c>
+      <c r="R81" t="s">
+        <v>67</v>
+      </c>
+      <c r="S81" t="s">
+        <v>63</v>
+      </c>
+      <c r="T81" t="s">
+        <v>67</v>
+      </c>
+      <c r="U81" t="s">
+        <v>218</v>
+      </c>
+      <c r="V81" t="s">
+        <v>67</v>
+      </c>
+      <c r="W81" s="6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="X81" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.997</v>
+      </c>
+      <c r="F82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82" t="s">
+        <v>283</v>
+      </c>
+      <c r="J82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>67</v>
+      </c>
+      <c r="M82" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" t="s">
+        <v>67</v>
+      </c>
+      <c r="O82" t="s">
+        <v>234</v>
+      </c>
+      <c r="P82" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s">
+        <v>67</v>
+      </c>
+      <c r="S82" t="s">
+        <v>63</v>
+      </c>
+      <c r="T82" t="s">
+        <v>67</v>
+      </c>
+      <c r="U82" t="s">
+        <v>46</v>
+      </c>
+      <c r="V82" t="s">
+        <v>67</v>
+      </c>
+      <c r="W82" s="6">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="X82" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" t="s">
+        <v>315</v>
+      </c>
+      <c r="J83" t="s">
+        <v>67</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="L83" t="s">
+        <v>67</v>
+      </c>
+      <c r="M83" t="s">
+        <v>63</v>
+      </c>
+      <c r="N83" t="s">
+        <v>67</v>
+      </c>
+      <c r="O83" t="s">
+        <v>266</v>
+      </c>
+      <c r="P83" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="R83" t="s">
+        <v>67</v>
+      </c>
+      <c r="S83" t="s">
+        <v>63</v>
+      </c>
+      <c r="T83" t="s">
+        <v>67</v>
+      </c>
+      <c r="U83" t="s">
+        <v>249</v>
+      </c>
+      <c r="V83" t="s">
+        <v>67</v>
+      </c>
+      <c r="W83" s="6">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="X83" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F84" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84" t="s">
+        <v>347</v>
+      </c>
+      <c r="J84" t="s">
+        <v>67</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="L84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M84" t="s">
+        <v>63</v>
+      </c>
+      <c r="N84" t="s">
+        <v>67</v>
+      </c>
+      <c r="O84" t="s">
+        <v>298</v>
+      </c>
+      <c r="P84" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s">
+        <v>67</v>
+      </c>
+      <c r="S84" t="s">
+        <v>63</v>
+      </c>
+      <c r="T84" t="s">
+        <v>67</v>
+      </c>
+      <c r="U84" t="s">
+        <v>281</v>
+      </c>
+      <c r="V84" t="s">
+        <v>67</v>
+      </c>
+      <c r="W84" s="6">
+        <v>1</v>
+      </c>
+      <c r="X84" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="F85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" t="s">
+        <v>67</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="L85" t="s">
+        <v>67</v>
+      </c>
+      <c r="M85" t="s">
+        <v>63</v>
+      </c>
+      <c r="N85" t="s">
+        <v>67</v>
+      </c>
+      <c r="O85" t="s">
+        <v>330</v>
+      </c>
+      <c r="P85" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="R85" t="s">
+        <v>67</v>
+      </c>
+      <c r="S85" t="s">
+        <v>63</v>
+      </c>
+      <c r="T85" t="s">
+        <v>67</v>
+      </c>
+      <c r="U85" t="s">
+        <v>313</v>
+      </c>
+      <c r="V85" t="s">
+        <v>67</v>
+      </c>
+      <c r="W85" s="6">
+        <v>1</v>
+      </c>
+      <c r="X85" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" t="s">
+        <v>129</v>
+      </c>
+      <c r="J86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>67</v>
+      </c>
+      <c r="M86" t="s">
+        <v>63</v>
+      </c>
+      <c r="N86" t="s">
+        <v>67</v>
+      </c>
+      <c r="O86" t="s">
+        <v>80</v>
+      </c>
+      <c r="P86" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="R86" t="s">
+        <v>67</v>
+      </c>
+      <c r="S86" t="s">
+        <v>63</v>
+      </c>
+      <c r="T86" t="s">
+        <v>67</v>
+      </c>
+      <c r="U86" t="s">
+        <v>345</v>
+      </c>
+      <c r="V86" t="s">
+        <v>67</v>
+      </c>
+      <c r="W86" s="6">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="X86" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F87" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" t="s">
+        <v>161</v>
+      </c>
+      <c r="J87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>67</v>
+      </c>
+      <c r="M87" t="s">
+        <v>63</v>
+      </c>
+      <c r="N87" t="s">
+        <v>67</v>
+      </c>
+      <c r="O87" t="s">
+        <v>112</v>
+      </c>
+      <c r="P87" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="R87" t="s">
+        <v>67</v>
+      </c>
+      <c r="S87" t="s">
+        <v>63</v>
+      </c>
+      <c r="T87" t="s">
+        <v>67</v>
+      </c>
+      <c r="U87" t="s">
+        <v>95</v>
+      </c>
+      <c r="V87" t="s">
+        <v>67</v>
+      </c>
+      <c r="W87" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="X87" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>67</v>
+      </c>
+      <c r="G88" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" t="s">
+        <v>192</v>
+      </c>
+      <c r="J88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>67</v>
+      </c>
+      <c r="M88" t="s">
+        <v>63</v>
+      </c>
+      <c r="N88" t="s">
+        <v>67</v>
+      </c>
+      <c r="O88" t="s">
+        <v>144</v>
+      </c>
+      <c r="P88" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="R88" t="s">
+        <v>67</v>
+      </c>
+      <c r="S88" t="s">
+        <v>63</v>
+      </c>
+      <c r="T88" t="s">
+        <v>67</v>
+      </c>
+      <c r="U88" t="s">
+        <v>127</v>
+      </c>
+      <c r="V88" t="s">
+        <v>67</v>
+      </c>
+      <c r="W88" s="6">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="X88" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F89" t="s">
+        <v>67</v>
+      </c>
+      <c r="G89" t="s">
+        <v>63</v>
+      </c>
+      <c r="H89" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" t="s">
+        <v>223</v>
+      </c>
+      <c r="J89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>67</v>
+      </c>
+      <c r="M89" t="s">
+        <v>63</v>
+      </c>
+      <c r="N89" t="s">
+        <v>67</v>
+      </c>
+      <c r="O89" t="s">
+        <v>175</v>
+      </c>
+      <c r="P89" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="R89" t="s">
+        <v>67</v>
+      </c>
+      <c r="S89" t="s">
+        <v>63</v>
+      </c>
+      <c r="T89" t="s">
+        <v>67</v>
+      </c>
+      <c r="U89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V89" t="s">
+        <v>67</v>
+      </c>
+      <c r="W89" s="6">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="X89" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>67</v>
+      </c>
+      <c r="G90" t="s">
+        <v>63</v>
+      </c>
+      <c r="H90" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" t="s">
+        <v>67</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="L90" t="s">
+        <v>67</v>
+      </c>
+      <c r="M90" t="s">
+        <v>63</v>
+      </c>
+      <c r="N90" t="s">
+        <v>67</v>
+      </c>
+      <c r="O90" t="s">
+        <v>206</v>
+      </c>
+      <c r="P90" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="R90" t="s">
+        <v>67</v>
+      </c>
+      <c r="S90" t="s">
+        <v>63</v>
+      </c>
+      <c r="T90" t="s">
+        <v>67</v>
+      </c>
+      <c r="U90" t="s">
+        <v>190</v>
+      </c>
+      <c r="V90" t="s">
+        <v>67</v>
+      </c>
+      <c r="W90" s="6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="X90" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H91" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" t="s">
+        <v>254</v>
+      </c>
+      <c r="J91" t="s">
+        <v>67</v>
+      </c>
+      <c r="K91" s="6">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>67</v>
+      </c>
+      <c r="M91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N91" t="s">
+        <v>67</v>
+      </c>
+      <c r="O91" t="s">
+        <v>42</v>
+      </c>
+      <c r="P91" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="R91" t="s">
+        <v>67</v>
+      </c>
+      <c r="S91" t="s">
+        <v>63</v>
+      </c>
+      <c r="T91" t="s">
+        <v>67</v>
+      </c>
+      <c r="U91" t="s">
+        <v>221</v>
+      </c>
+      <c r="V91" t="s">
+        <v>67</v>
+      </c>
+      <c r="W91" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="X91" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="F92" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" t="s">
+        <v>63</v>
+      </c>
+      <c r="H92" t="s">
+        <v>67</v>
+      </c>
+      <c r="I92" t="s">
+        <v>286</v>
+      </c>
+      <c r="J92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>67</v>
+      </c>
+      <c r="M92" t="s">
+        <v>63</v>
+      </c>
+      <c r="N92" t="s">
+        <v>67</v>
+      </c>
+      <c r="O92" t="s">
+        <v>237</v>
+      </c>
+      <c r="P92" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R92" t="s">
+        <v>67</v>
+      </c>
+      <c r="S92" t="s">
+        <v>63</v>
+      </c>
+      <c r="T92" t="s">
+        <v>67</v>
+      </c>
+      <c r="U92" t="s">
+        <v>47</v>
+      </c>
+      <c r="V92" t="s">
+        <v>67</v>
+      </c>
+      <c r="W92" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="X92" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>335</v>
+      </c>
+      <c r="D93" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F93" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93" t="s">
+        <v>318</v>
+      </c>
+      <c r="J93" t="s">
+        <v>67</v>
+      </c>
+      <c r="K93" s="6">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>67</v>
+      </c>
+      <c r="M93" t="s">
+        <v>63</v>
+      </c>
+      <c r="N93" t="s">
+        <v>67</v>
+      </c>
+      <c r="O93" t="s">
+        <v>269</v>
+      </c>
+      <c r="P93" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q93" s="6">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="R93" t="s">
+        <v>67</v>
+      </c>
+      <c r="S93" t="s">
+        <v>63</v>
+      </c>
+      <c r="T93" t="s">
+        <v>67</v>
+      </c>
+      <c r="U93" t="s">
+        <v>252</v>
+      </c>
+      <c r="V93" t="s">
+        <v>67</v>
+      </c>
+      <c r="W93" s="6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="X93" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" t="s">
+        <v>63</v>
+      </c>
+      <c r="H94" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" t="s">
+        <v>350</v>
+      </c>
+      <c r="J94" t="s">
+        <v>67</v>
+      </c>
+      <c r="K94" s="6">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>67</v>
+      </c>
+      <c r="M94" t="s">
+        <v>63</v>
+      </c>
+      <c r="N94" t="s">
+        <v>67</v>
+      </c>
+      <c r="O94" t="s">
+        <v>301</v>
+      </c>
+      <c r="P94" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="R94" t="s">
+        <v>67</v>
+      </c>
+      <c r="S94" t="s">
+        <v>63</v>
+      </c>
+      <c r="T94" t="s">
+        <v>67</v>
+      </c>
+      <c r="U94" t="s">
+        <v>284</v>
+      </c>
+      <c r="V94" t="s">
+        <v>67</v>
+      </c>
+      <c r="W94" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="X94" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.874</v>
+      </c>
+      <c r="F95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" t="s">
+        <v>63</v>
+      </c>
+      <c r="H95" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" t="s">
+        <v>100</v>
+      </c>
+      <c r="J95" t="s">
+        <v>67</v>
+      </c>
+      <c r="K95" s="6">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>67</v>
+      </c>
+      <c r="M95" t="s">
+        <v>63</v>
+      </c>
+      <c r="N95" t="s">
+        <v>67</v>
+      </c>
+      <c r="O95" t="s">
+        <v>333</v>
+      </c>
+      <c r="P95" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q95" s="6">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="R95" t="s">
+        <v>67</v>
+      </c>
+      <c r="S95" t="s">
+        <v>63</v>
+      </c>
+      <c r="T95" t="s">
+        <v>67</v>
+      </c>
+      <c r="U95" t="s">
+        <v>316</v>
+      </c>
+      <c r="V95" t="s">
+        <v>67</v>
+      </c>
+      <c r="W95" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="X95" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G96" t="s">
+        <v>63</v>
+      </c>
+      <c r="H96" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+      <c r="J96" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96" s="6">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>67</v>
+      </c>
+      <c r="M96" t="s">
+        <v>63</v>
+      </c>
+      <c r="N96" t="s">
+        <v>67</v>
+      </c>
+      <c r="O96" t="s">
+        <v>83</v>
+      </c>
+      <c r="P96" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="R96" t="s">
+        <v>67</v>
+      </c>
+      <c r="S96" t="s">
+        <v>63</v>
+      </c>
+      <c r="T96" t="s">
+        <v>67</v>
+      </c>
+      <c r="U96" t="s">
+        <v>348</v>
+      </c>
+      <c r="V96" t="s">
+        <v>67</v>
+      </c>
+      <c r="W96" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="X96" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.498</v>
+      </c>
+      <c r="F97" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" t="s">
+        <v>163</v>
+      </c>
+      <c r="J97" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L97" t="s">
+        <v>67</v>
+      </c>
+      <c r="M97" t="s">
+        <v>63</v>
+      </c>
+      <c r="N97" t="s">
+        <v>67</v>
+      </c>
+      <c r="O97" t="s">
+        <v>115</v>
+      </c>
+      <c r="P97" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>1</v>
+      </c>
+      <c r="R97" t="s">
+        <v>67</v>
+      </c>
+      <c r="S97" t="s">
+        <v>63</v>
+      </c>
+      <c r="T97" t="s">
+        <v>67</v>
+      </c>
+      <c r="U97" t="s">
+        <v>98</v>
+      </c>
+      <c r="V97" t="s">
+        <v>67</v>
+      </c>
+      <c r="W97" s="6">
+        <v>1</v>
+      </c>
+      <c r="X97" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F98" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" t="s">
+        <v>194</v>
+      </c>
+      <c r="J98" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L98" t="s">
+        <v>67</v>
+      </c>
+      <c r="M98" t="s">
+        <v>63</v>
+      </c>
+      <c r="N98" t="s">
+        <v>67</v>
+      </c>
+      <c r="O98" t="s">
+        <v>147</v>
+      </c>
+      <c r="P98" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>1</v>
+      </c>
+      <c r="R98" t="s">
+        <v>67</v>
+      </c>
+      <c r="S98" t="s">
+        <v>63</v>
+      </c>
+      <c r="T98" t="s">
+        <v>67</v>
+      </c>
+      <c r="U98" t="s">
+        <v>130</v>
+      </c>
+      <c r="V98" t="s">
+        <v>67</v>
+      </c>
+      <c r="W98" s="6">
+        <v>1</v>
+      </c>
+      <c r="X98" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>67</v>
+      </c>
+      <c r="G99" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" t="s">
+        <v>67</v>
+      </c>
+      <c r="I99" t="s">
+        <v>225</v>
+      </c>
+      <c r="J99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L99" t="s">
+        <v>67</v>
+      </c>
+      <c r="M99" t="s">
+        <v>63</v>
+      </c>
+      <c r="N99" t="s">
+        <v>67</v>
+      </c>
+      <c r="O99" t="s">
+        <v>178</v>
+      </c>
+      <c r="P99" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="R99" t="s">
+        <v>67</v>
+      </c>
+      <c r="S99" t="s">
+        <v>64</v>
+      </c>
+      <c r="T99" t="s">
+        <v>67</v>
+      </c>
+      <c r="U99" t="s">
+        <v>48</v>
+      </c>
+      <c r="V99" t="s">
+        <v>67</v>
+      </c>
+      <c r="W99" s="6">
+        <v>1</v>
+      </c>
+      <c r="X99" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="F100" t="s">
+        <v>67</v>
+      </c>
+      <c r="G100" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" t="s">
+        <v>38</v>
+      </c>
+      <c r="J100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="L100" t="s">
+        <v>67</v>
+      </c>
+      <c r="M100" t="s">
+        <v>63</v>
+      </c>
+      <c r="N100" t="s">
+        <v>67</v>
+      </c>
+      <c r="O100" t="s">
+        <v>209</v>
+      </c>
+      <c r="P100" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q100" s="6">
+        <v>1</v>
+      </c>
+      <c r="R100" t="s">
+        <v>67</v>
+      </c>
+      <c r="S100" t="s">
+        <v>64</v>
+      </c>
+      <c r="T100" t="s">
+        <v>67</v>
+      </c>
+      <c r="U100" t="s">
+        <v>49</v>
+      </c>
+      <c r="V100" t="s">
+        <v>67</v>
+      </c>
+      <c r="W100" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="X100" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>67</v>
+      </c>
+      <c r="G101" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" t="s">
+        <v>67</v>
+      </c>
+      <c r="I101" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="L101" t="s">
+        <v>67</v>
+      </c>
+      <c r="M101" t="s">
+        <v>63</v>
+      </c>
+      <c r="N101" t="s">
+        <v>67</v>
+      </c>
+      <c r="O101" t="s">
+        <v>43</v>
+      </c>
+      <c r="P101" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>1</v>
+      </c>
+      <c r="R101" t="s">
+        <v>67</v>
+      </c>
+      <c r="S101" t="s">
+        <v>65</v>
+      </c>
+      <c r="T101" t="s">
+        <v>67</v>
+      </c>
+      <c r="U101" t="s">
+        <v>50</v>
+      </c>
+      <c r="V101" t="s">
+        <v>67</v>
+      </c>
+      <c r="W101" s="6">
+        <v>1</v>
+      </c>
+      <c r="X101" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>67</v>
+      </c>
+      <c r="G102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102" t="s">
+        <v>257</v>
+      </c>
+      <c r="J102" t="s">
+        <v>67</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>67</v>
+      </c>
+      <c r="M102" t="s">
+        <v>63</v>
+      </c>
+      <c r="N102" t="s">
+        <v>67</v>
+      </c>
+      <c r="O102" t="s">
+        <v>240</v>
+      </c>
+      <c r="P102" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="R102" t="s">
+        <v>67</v>
+      </c>
+      <c r="S102" t="s">
+        <v>65</v>
+      </c>
+      <c r="T102" t="s">
+        <v>67</v>
+      </c>
+      <c r="U102" t="s">
+        <v>51</v>
+      </c>
+      <c r="V102" t="s">
+        <v>67</v>
+      </c>
+      <c r="W102" s="6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="X102" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" t="s">
+        <v>338</v>
+      </c>
+      <c r="D103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>67</v>
+      </c>
+      <c r="G103" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" t="s">
+        <v>289</v>
+      </c>
+      <c r="J103" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103" s="6">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="L103" t="s">
+        <v>67</v>
+      </c>
+      <c r="M103" t="s">
+        <v>63</v>
+      </c>
+      <c r="N103" t="s">
+        <v>67</v>
+      </c>
+      <c r="O103" t="s">
+        <v>272</v>
+      </c>
+      <c r="P103" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>1</v>
+      </c>
+      <c r="R103" t="s">
+        <v>67</v>
+      </c>
+      <c r="S103" t="s">
+        <v>65</v>
+      </c>
+      <c r="T103" t="s">
+        <v>67</v>
+      </c>
+      <c r="U103" t="s">
+        <v>52</v>
+      </c>
+      <c r="V103" t="s">
+        <v>67</v>
+      </c>
+      <c r="W103" s="6">
+        <v>1</v>
+      </c>
+      <c r="X103" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F104" t="s">
+        <v>67</v>
+      </c>
+      <c r="G104" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I104" t="s">
+        <v>321</v>
+      </c>
+      <c r="J104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L104" t="s">
+        <v>67</v>
+      </c>
+      <c r="M104" t="s">
+        <v>63</v>
+      </c>
+      <c r="N104" t="s">
+        <v>67</v>
+      </c>
+      <c r="O104" t="s">
+        <v>304</v>
+      </c>
+      <c r="P104" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>1</v>
+      </c>
+      <c r="R104" t="s">
+        <v>67</v>
+      </c>
+      <c r="S104" t="s">
+        <v>65</v>
+      </c>
+      <c r="T104" t="s">
+        <v>67</v>
+      </c>
+      <c r="U104" t="s">
+        <v>53</v>
+      </c>
+      <c r="V104" t="s">
+        <v>67</v>
+      </c>
+      <c r="W104" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="X104" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105" t="s">
+        <v>71</v>
+      </c>
+      <c r="J105" t="s">
+        <v>67</v>
+      </c>
+      <c r="K105" s="6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L105" t="s">
+        <v>67</v>
+      </c>
+      <c r="M105" t="s">
+        <v>63</v>
+      </c>
+      <c r="N105" t="s">
+        <v>67</v>
+      </c>
+      <c r="O105" t="s">
+        <v>336</v>
+      </c>
+      <c r="P105" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q105" s="6">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="R105" t="s">
+        <v>67</v>
+      </c>
+      <c r="S105" t="s">
+        <v>65</v>
+      </c>
+      <c r="T105" t="s">
+        <v>67</v>
+      </c>
+      <c r="U105" t="s">
+        <v>54</v>
+      </c>
+      <c r="V105" t="s">
+        <v>67</v>
+      </c>
+      <c r="W105" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="X105" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F106" t="s">
+        <v>67</v>
+      </c>
+      <c r="G106" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106" t="s">
+        <v>103</v>
+      </c>
+      <c r="J106" t="s">
+        <v>67</v>
+      </c>
+      <c r="K106" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="L106" t="s">
+        <v>67</v>
+      </c>
+      <c r="M106" t="s">
+        <v>63</v>
+      </c>
+      <c r="N106" t="s">
+        <v>67</v>
+      </c>
+      <c r="O106" t="s">
+        <v>86</v>
+      </c>
+      <c r="P106" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q106" s="6">
+        <v>1</v>
+      </c>
+      <c r="R106" t="s">
+        <v>67</v>
+      </c>
+      <c r="S106" t="s">
+        <v>65</v>
+      </c>
+      <c r="T106" t="s">
+        <v>67</v>
+      </c>
+      <c r="U106" t="s">
+        <v>55</v>
+      </c>
+      <c r="V106" t="s">
+        <v>67</v>
+      </c>
+      <c r="W106" s="6">
+        <v>1</v>
+      </c>
+      <c r="X106" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G107" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+      <c r="J107" t="s">
+        <v>67</v>
+      </c>
+      <c r="K107" s="6">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="L107" t="s">
+        <v>67</v>
+      </c>
+      <c r="M107" t="s">
+        <v>63</v>
+      </c>
+      <c r="N107" t="s">
+        <v>67</v>
+      </c>
+      <c r="O107" t="s">
+        <v>118</v>
+      </c>
+      <c r="P107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q107" s="6">
+        <v>1</v>
+      </c>
+      <c r="R107" t="s">
+        <v>67</v>
+      </c>
+      <c r="S107" t="s">
+        <v>65</v>
+      </c>
+      <c r="T107" t="s">
+        <v>67</v>
+      </c>
+      <c r="U107" t="s">
+        <v>56</v>
+      </c>
+      <c r="V107" t="s">
+        <v>67</v>
+      </c>
+      <c r="W107" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="X107" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F108" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" t="s">
+        <v>67</v>
+      </c>
+      <c r="I108" t="s">
+        <v>166</v>
+      </c>
+      <c r="J108" t="s">
+        <v>67</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L108" t="s">
+        <v>67</v>
+      </c>
+      <c r="M108" t="s">
+        <v>63</v>
+      </c>
+      <c r="N108" t="s">
+        <v>67</v>
+      </c>
+      <c r="O108" t="s">
+        <v>150</v>
+      </c>
+      <c r="P108" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>1</v>
+      </c>
+      <c r="R108" t="s">
+        <v>67</v>
+      </c>
+      <c r="S108" t="s">
+        <v>65</v>
+      </c>
+      <c r="T108" t="s">
+        <v>67</v>
+      </c>
+      <c r="U108" t="s">
+        <v>57</v>
+      </c>
+      <c r="V108" t="s">
+        <v>67</v>
+      </c>
+      <c r="W108" s="6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="X108" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>67</v>
+      </c>
+      <c r="G109" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109" t="s">
+        <v>197</v>
+      </c>
+      <c r="J109" t="s">
+        <v>67</v>
+      </c>
+      <c r="K109" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="L109" t="s">
+        <v>67</v>
+      </c>
+      <c r="M109" t="s">
+        <v>63</v>
+      </c>
+      <c r="N109" t="s">
+        <v>67</v>
+      </c>
+      <c r="O109" t="s">
+        <v>181</v>
+      </c>
+      <c r="P109" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q109" s="6">
+        <v>1</v>
+      </c>
+      <c r="R109" t="s">
+        <v>67</v>
+      </c>
+      <c r="S109" t="s">
+        <v>65</v>
+      </c>
+      <c r="T109" t="s">
+        <v>67</v>
+      </c>
+      <c r="U109" t="s">
+        <v>58</v>
+      </c>
+      <c r="V109" t="s">
+        <v>67</v>
+      </c>
+      <c r="W109" s="6">
+        <v>1</v>
+      </c>
+      <c r="X109" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="F110" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" t="s">
+        <v>67</v>
+      </c>
+      <c r="K110" s="6">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>67</v>
+      </c>
+      <c r="M110" t="s">
+        <v>63</v>
+      </c>
+      <c r="N110" t="s">
+        <v>67</v>
+      </c>
+      <c r="O110" t="s">
+        <v>212</v>
+      </c>
+      <c r="P110" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q110" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R110" t="s">
+        <v>67</v>
+      </c>
+      <c r="S110" t="s">
+        <v>65</v>
+      </c>
+      <c r="T110" t="s">
+        <v>67</v>
+      </c>
+      <c r="U110" t="s">
+        <v>59</v>
+      </c>
+      <c r="V110" t="s">
+        <v>67</v>
+      </c>
+      <c r="W110" s="6">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="X110" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" t="s">
+        <v>228</v>
+      </c>
+      <c r="J111" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="L111" t="s">
+        <v>67</v>
+      </c>
+      <c r="M111" t="s">
+        <v>63</v>
+      </c>
+      <c r="N111" t="s">
+        <v>67</v>
+      </c>
+      <c r="O111" t="s">
+        <v>44</v>
+      </c>
+      <c r="P111" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q111" s="6">
+        <v>1</v>
+      </c>
+      <c r="R111" t="s">
+        <v>67</v>
+      </c>
+      <c r="S111" t="s">
+        <v>63</v>
+      </c>
+      <c r="T111" t="s">
+        <v>67</v>
+      </c>
+      <c r="U111" t="s">
+        <v>60</v>
+      </c>
+      <c r="V111" t="s">
+        <v>67</v>
+      </c>
+      <c r="W111" s="6">
+        <v>1</v>
+      </c>
+      <c r="X111" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="F112" t="s">
+        <v>67</v>
+      </c>
+      <c r="G112" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112" t="s">
+        <v>260</v>
+      </c>
+      <c r="J112" t="s">
+        <v>67</v>
+      </c>
+      <c r="K112" s="6">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>67</v>
+      </c>
+      <c r="M112" t="s">
+        <v>63</v>
+      </c>
+      <c r="N112" t="s">
+        <v>67</v>
+      </c>
+      <c r="O112" t="s">
+        <v>243</v>
+      </c>
+      <c r="P112" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>1</v>
+      </c>
+      <c r="R112" t="s">
+        <v>67</v>
+      </c>
+      <c r="S112" t="s">
+        <v>64</v>
+      </c>
+      <c r="T112" t="s">
+        <v>67</v>
+      </c>
+      <c r="U112" t="s">
+        <v>61</v>
+      </c>
+      <c r="V112" t="s">
+        <v>67</v>
+      </c>
+      <c r="W112" s="6">
+        <v>1</v>
+      </c>
+      <c r="X112" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X64" r:id="rId1" xr:uid="{C6BC0BC5-25A0-44D1-919E-9B4444232B01}"/>
+    <hyperlink ref="X65:X112" r:id="rId2" display="\\" xr:uid="{375FA42A-3A62-4750-AE77-4636AA57B548}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RESULTS_excel.xlsx
+++ b/RESULTS_excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osmar\OneDrive\Escritorio\GitHub Repositories\High-Freq-Inflation-Forecast-2SML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A63680-EB29-4498-89C2-E9589D56ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5B757-828C-41ED-931A-215233C1D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{40839371-5B8E-4BBE-BA64-216AFB9E931B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="KS daily" sheetId="2" r:id="rId2"/>
+    <sheet name="fs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="616">
   <si>
     <t>F1</t>
   </si>
@@ -1418,6 +1419,471 @@
   </si>
   <si>
     <t>chili SU</t>
+  </si>
+  <si>
+    <t>ipc_all</t>
+  </si>
+  <si>
+    <t>lag_1</t>
+  </si>
+  <si>
+    <t>lag_2</t>
+  </si>
+  <si>
+    <t>lag_3</t>
+  </si>
+  <si>
+    <t>lag_6</t>
+  </si>
+  <si>
+    <t>lag_9</t>
+  </si>
+  <si>
+    <t>lag_12</t>
+  </si>
+  <si>
+    <t>oil_cb</t>
+  </si>
+  <si>
+    <t>sugar_bol</t>
+  </si>
+  <si>
+    <t>chicken_tj</t>
+  </si>
+  <si>
+    <t>oil2_tj</t>
+  </si>
+  <si>
+    <t>oil2_bol</t>
+  </si>
+  <si>
+    <t>sugar_tj</t>
+  </si>
+  <si>
+    <t>rice4_tj</t>
+  </si>
+  <si>
+    <t>sugar_cb</t>
+  </si>
+  <si>
+    <t>rice3_po</t>
+  </si>
+  <si>
+    <t>sugar_or</t>
+  </si>
+  <si>
+    <t>sugar_sc</t>
+  </si>
+  <si>
+    <t>ycorn_tj</t>
+  </si>
+  <si>
+    <t>chicken_bol</t>
+  </si>
+  <si>
+    <t>papa2_tj</t>
+  </si>
+  <si>
+    <t>oil2_po</t>
+  </si>
+  <si>
+    <t>sugar_lp</t>
+  </si>
+  <si>
+    <t>papaya_tr</t>
+  </si>
+  <si>
+    <t>oil_sc</t>
+  </si>
+  <si>
+    <t>banana_co</t>
+  </si>
+  <si>
+    <t>rice_bol</t>
+  </si>
+  <si>
+    <t>milk_sc</t>
+  </si>
+  <si>
+    <t>chicken_tr</t>
+  </si>
+  <si>
+    <t>pineapple_tr</t>
+  </si>
+  <si>
+    <t>rice2_lp</t>
+  </si>
+  <si>
+    <t>paprika_or</t>
+  </si>
+  <si>
+    <t>squash_co</t>
+  </si>
+  <si>
+    <t>papa1_po</t>
+  </si>
+  <si>
+    <t>rice2_po</t>
+  </si>
+  <si>
+    <t>flour_lp</t>
+  </si>
+  <si>
+    <t>chicken_po</t>
+  </si>
+  <si>
+    <t>chicken_lp</t>
+  </si>
+  <si>
+    <t>ycorn_sc</t>
+  </si>
+  <si>
+    <t>chicken_sc</t>
+  </si>
+  <si>
+    <t>tomato_co</t>
+  </si>
+  <si>
+    <t>platano_co</t>
+  </si>
+  <si>
+    <t>sugar_po</t>
+  </si>
+  <si>
+    <t>carrot_co</t>
+  </si>
+  <si>
+    <t>tomato_tj</t>
+  </si>
+  <si>
+    <t>oil_tr</t>
+  </si>
+  <si>
+    <t>lard_lp</t>
+  </si>
+  <si>
+    <t>rice4_or</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>RF FS</t>
+  </si>
+  <si>
+    <t>milk2_cb</t>
+  </si>
+  <si>
+    <t>watermelon_po</t>
+  </si>
+  <si>
+    <t>lard_co</t>
+  </si>
+  <si>
+    <t>onion2_tj</t>
+  </si>
+  <si>
+    <t>chicken_co</t>
+  </si>
+  <si>
+    <t>rice_cb</t>
+  </si>
+  <si>
+    <t>inflacion</t>
+  </si>
+  <si>
+    <t>chicken_cb</t>
+  </si>
+  <si>
+    <t>peas_tj</t>
+  </si>
+  <si>
+    <t>papaya_su</t>
+  </si>
+  <si>
+    <t>carrot_tj</t>
+  </si>
+  <si>
+    <t>bean_cb</t>
+  </si>
+  <si>
+    <t>yuca_lp</t>
+  </si>
+  <si>
+    <t>L1 FS</t>
+  </si>
+  <si>
+    <t>CORR FS</t>
+  </si>
+  <si>
+    <t>PCA FS</t>
+  </si>
+  <si>
+    <t>oil2_or</t>
+  </si>
+  <si>
+    <t>peas_co</t>
+  </si>
+  <si>
+    <t>apple_tr</t>
+  </si>
+  <si>
+    <t>lard_or</t>
+  </si>
+  <si>
+    <t>oil_bol</t>
+  </si>
+  <si>
+    <t>oil_po</t>
+  </si>
+  <si>
+    <t>oil2_sc</t>
+  </si>
+  <si>
+    <t>redpepper_co</t>
+  </si>
+  <si>
+    <t>rice4_lp</t>
+  </si>
+  <si>
+    <t>pineapple_co</t>
+  </si>
+  <si>
+    <t>PC_1</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>PC_3</t>
+  </si>
+  <si>
+    <t>PC_4</t>
+  </si>
+  <si>
+    <t>PC_5</t>
+  </si>
+  <si>
+    <t>PC_6</t>
+  </si>
+  <si>
+    <t>PC_7</t>
+  </si>
+  <si>
+    <t>PC_8</t>
+  </si>
+  <si>
+    <t>PC_9</t>
+  </si>
+  <si>
+    <t>PC_10</t>
+  </si>
+  <si>
+    <t>PC_11</t>
+  </si>
+  <si>
+    <t>PC_12</t>
+  </si>
+  <si>
+    <t>PC_13</t>
+  </si>
+  <si>
+    <t>PC_14</t>
+  </si>
+  <si>
+    <t>PC_15</t>
+  </si>
+  <si>
+    <t>PC_16</t>
+  </si>
+  <si>
+    <t>PC_17</t>
+  </si>
+  <si>
+    <t>PC_18</t>
+  </si>
+  <si>
+    <t>PC_19</t>
+  </si>
+  <si>
+    <t>PC_20</t>
+  </si>
+  <si>
+    <t>PC_21</t>
+  </si>
+  <si>
+    <t>PC_22</t>
+  </si>
+  <si>
+    <t>PC_23</t>
+  </si>
+  <si>
+    <t>PC_24</t>
+  </si>
+  <si>
+    <t>PC_25</t>
+  </si>
+  <si>
+    <t>PC_26</t>
+  </si>
+  <si>
+    <t>PC_27</t>
+  </si>
+  <si>
+    <t>PC_28</t>
+  </si>
+  <si>
+    <t>PC_29</t>
+  </si>
+  <si>
+    <t>PC_30</t>
+  </si>
+  <si>
+    <t>PC_31</t>
+  </si>
+  <si>
+    <t>PC_32</t>
+  </si>
+  <si>
+    <t>PC_33</t>
+  </si>
+  <si>
+    <t>PC_34</t>
+  </si>
+  <si>
+    <t>PC_35</t>
+  </si>
+  <si>
+    <t>PC_36</t>
+  </si>
+  <si>
+    <t>PC_37</t>
+  </si>
+  <si>
+    <t>PC_38</t>
+  </si>
+  <si>
+    <t>PC_39</t>
+  </si>
+  <si>
+    <t>PC_40</t>
+  </si>
+  <si>
+    <t>PC_41</t>
+  </si>
+  <si>
+    <t>PC_42</t>
+  </si>
+  <si>
+    <t>PC_43</t>
+  </si>
+  <si>
+    <t>PC_44</t>
+  </si>
+  <si>
+    <t>PC_45</t>
+  </si>
+  <si>
+    <t>PC_46</t>
+  </si>
+  <si>
+    <t>PC_47</t>
+  </si>
+  <si>
+    <t>PC_48</t>
+  </si>
+  <si>
+    <t>PC_49</t>
+  </si>
+  <si>
+    <t>PC_50</t>
+  </si>
+  <si>
+    <t>PC_51</t>
+  </si>
+  <si>
+    <t>PC_52</t>
+  </si>
+  <si>
+    <t>PC_53</t>
+  </si>
+  <si>
+    <t>PC_54</t>
+  </si>
+  <si>
+    <t>PC_55</t>
+  </si>
+  <si>
+    <t>PC_56</t>
+  </si>
+  <si>
+    <t>PC_57</t>
+  </si>
+  <si>
+    <t>PC_58</t>
+  </si>
+  <si>
+    <t>PC_59</t>
+  </si>
+  <si>
+    <t>PC_60</t>
+  </si>
+  <si>
+    <t>PC_61</t>
+  </si>
+  <si>
+    <t>PC_62</t>
+  </si>
+  <si>
+    <t>PC_63</t>
+  </si>
+  <si>
+    <t>PC_64</t>
+  </si>
+  <si>
+    <t>PC_65</t>
+  </si>
+  <si>
+    <t>PC_66</t>
+  </si>
+  <si>
+    <t>PC_67</t>
+  </si>
+  <si>
+    <t>PC_68</t>
+  </si>
+  <si>
+    <t>PC_69</t>
+  </si>
+  <si>
+    <t>PC_70</t>
+  </si>
+  <si>
+    <t>PC_71</t>
+  </si>
+  <si>
+    <t>PC_72</t>
+  </si>
+  <si>
+    <t>PC_73</t>
+  </si>
+  <si>
+    <t>PC_74</t>
+  </si>
+  <si>
+    <t>PC_75</t>
+  </si>
+  <si>
+    <t>PC_76</t>
+  </si>
+  <si>
+    <t>PC_77</t>
+  </si>
+  <si>
+    <t>PC_78</t>
+  </si>
+  <si>
+    <t>PC_79</t>
   </si>
 </sst>
 </file>
@@ -2975,7 +3441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489D0468-0D15-4A7F-8C9D-DB15EECB9A5E}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H87" workbookViewId="0">
+    <sheetView topLeftCell="H87" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:X112"/>
     </sheetView>
   </sheetViews>
@@ -11196,4 +11662,873 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB99BDAB-4D54-4430-9CAE-30282B021283}">
+  <dimension ref="A1:I88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>512</v>
+      </c>
+      <c r="B20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>527</v>
+      </c>
+      <c r="B21" t="s">
+        <v>548</v>
+      </c>
+      <c r="C21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>514</v>
+      </c>
+      <c r="B23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D24" t="s">
+        <v>482</v>
+      </c>
+      <c r="I24">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>552</v>
+      </c>
+      <c r="C25" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" t="s">
+        <v>483</v>
+      </c>
+      <c r="I25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>484</v>
+      </c>
+      <c r="I26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>500</v>
+      </c>
+      <c r="B28" t="s">
+        <v>555</v>
+      </c>
+      <c r="C28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>530</v>
+      </c>
+      <c r="B29" t="s">
+        <v>556</v>
+      </c>
+      <c r="C29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C30" t="s">
+        <v>519</v>
+      </c>
+      <c r="D30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>531</v>
+      </c>
+      <c r="B31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" t="s">
+        <v>476</v>
+      </c>
+      <c r="D31" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>532</v>
+      </c>
+      <c r="B32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>533</v>
+      </c>
+      <c r="B33" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>534</v>
+      </c>
+      <c r="B34" t="s">
+        <v>561</v>
+      </c>
+      <c r="C34" t="s">
+        <v>521</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" t="s">
+        <v>522</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>535</v>
+      </c>
+      <c r="B36" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" t="s">
+        <v>523</v>
+      </c>
+      <c r="D36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B37" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" t="s">
+        <v>509</v>
+      </c>
+      <c r="D37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>502</v>
+      </c>
+      <c r="B38" t="s">
+        <v>565</v>
+      </c>
+      <c r="D38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>485</v>
+      </c>
+      <c r="B39" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>536</v>
+      </c>
+      <c r="B41" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D43" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>571</v>
+      </c>
+      <c r="D44" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>572</v>
+      </c>
+      <c r="D45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>573</v>
+      </c>
+      <c r="D46" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>574</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D48" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>576</v>
+      </c>
+      <c r="D49" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>577</v>
+      </c>
+      <c r="D50" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>578</v>
+      </c>
+      <c r="D51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>579</v>
+      </c>
+      <c r="D52" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>580</v>
+      </c>
+      <c r="D53" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>582</v>
+      </c>
+      <c r="D55" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>